--- a/仕様書/仕様書.xlsx
+++ b/仕様書/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="7890" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="7890" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -17,14 +17,16 @@
     <sheet name="詳細" sheetId="1" r:id="rId3"/>
     <sheet name="詳細 (2)" sheetId="10" r:id="rId4"/>
     <sheet name="GameMgr" sheetId="15" r:id="rId5"/>
-    <sheet name="mapsSelect" sheetId="16" r:id="rId6"/>
+    <sheet name="DamageCul" sheetId="21" r:id="rId6"/>
     <sheet name="save lord" sheetId="19" r:id="rId7"/>
     <sheet name="Button Mgr" sheetId="18" r:id="rId8"/>
     <sheet name="BaseButton" sheetId="17" r:id="rId9"/>
     <sheet name="fairy" sheetId="13" r:id="rId10"/>
-    <sheet name="CharaMgr" sheetId="20" r:id="rId11"/>
-    <sheet name="Unit" sheetId="11" r:id="rId12"/>
-    <sheet name="map" sheetId="14" r:id="rId13"/>
+    <sheet name="Creater" sheetId="22" r:id="rId11"/>
+    <sheet name="CharaMgr" sheetId="20" r:id="rId12"/>
+    <sheet name="Unit" sheetId="11" r:id="rId13"/>
+    <sheet name="mapsSelect" sheetId="16" r:id="rId14"/>
+    <sheet name="map" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="284">
   <si>
     <t>オブジェクト名</t>
     <rPh sb="6" eb="7">
@@ -705,22 +707,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵も味方も全てこれを持つ</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミカタ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>protected int</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -881,17 +867,6 @@
   </si>
   <si>
     <t>レベル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経験値　100でレベルアップ0へ</t>
-    <rPh sb="0" eb="3">
-      <t>ケイケンチ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1909,10 +1884,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>unit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>vector&lt;Unit&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1926,6 +1897,363 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>カクホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BaseTusk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>damageCul</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>damage計算</t>
+    <rPh sb="6" eb="8">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘を行う</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nowpos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>portected int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵か味方か(第三陣営も可)</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int LevelUp()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベルアップに必要な経験値計算</t>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ケイケンチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>protected int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nextExp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在経験値</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のレベル用に到達するまでの値
+最初は　100でレベルアップ 0へ</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウタツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベルアップ 1 それ以外0</t>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int StatusUp()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>能力を引き上げる</t>
+    <rPh sb="0" eb="2">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本無し</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit&amp;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vector&lt;Unit&gt;</t>
+  </si>
+  <si>
+    <t>enemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chara</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ情報の取得</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vector&lt;Unit&gt;&amp;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vector&lt;Unit&gt;&amp;GetEnemy()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵情報の取得</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int CreateChara(Unit&amp;)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int CreateEnemy(Unit&amp;)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を情報を受け取って生成する</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vector&lt;Unit&gt;&amp;GetChara()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unitの生成を行う</t>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵と味方を生成する</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味方ユニット情報を一時確保</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵ユニット情報を一時確保</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>damageCul</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cul</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵ユニット情報を確保する</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Creater</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Creater</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>creater</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit生成用のクラス</t>
+    <rPh sb="4" eb="7">
+      <t>セイセイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算用のクラス</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵も味方も全てこれを継承して、さらに各クラスを作っていく。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2577,7 +2905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2701,11 +3029,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2779,6 +3104,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2789,24 +3132,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2827,16 +3152,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3317,14 +3642,14 @@
   <sheetData>
     <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="44"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
@@ -3348,10 +3673,10 @@
     </row>
     <row r="7" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="47"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
@@ -3528,10 +3853,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D70"/>
+  <dimension ref="B1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+      <selection activeCell="C56" sqref="C56:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3545,70 +3870,70 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="56"/>
+      <c r="C5" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="58"/>
+      <c r="C6" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="86"/>
+        <v>127</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="84"/>
+      <c r="C9" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="69"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -3633,11 +3958,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
@@ -3652,57 +3977,57 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
@@ -3736,11 +4061,11 @@
       <c r="D29" s="23"/>
     </row>
     <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="28" t="s">
@@ -3765,292 +4090,289 @@
     </row>
     <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="82"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81"/>
     </row>
     <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="70"/>
+      <c r="C36" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="75"/>
     </row>
     <row r="37" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="72"/>
+      <c r="C37" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="67"/>
     </row>
     <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="72"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
     </row>
     <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="68"/>
+      <c r="C39" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="73"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="70"/>
+      <c r="C40" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="75"/>
     </row>
     <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="72"/>
+      <c r="C41" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="67"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="72"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
     </row>
     <row r="43" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="68"/>
+      <c r="C43" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="73"/>
     </row>
     <row r="44" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="70"/>
+      <c r="C44" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="75"/>
     </row>
     <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="72"/>
+      <c r="C45" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="67"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="72"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
     </row>
     <row r="47" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="68"/>
+      <c r="C47" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="73"/>
     </row>
     <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="70"/>
+      <c r="C48" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="75"/>
     </row>
     <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="72"/>
+      <c r="C49" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="D49" s="67"/>
     </row>
     <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72"/>
-    </row>
-    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="3"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="72"/>
+      <c r="C50" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="67"/>
+    </row>
+    <row r="51" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" s="73"/>
     </row>
     <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="3"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="72"/>
-    </row>
-    <row r="53" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="4" t="s">
+      <c r="B52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D52" s="75"/>
+    </row>
+    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="D53" s="67"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="67"/>
+    </row>
+    <row r="55" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="67"/>
-      <c r="D53" s="68"/>
-    </row>
-    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="2" t="s">
+      <c r="C55" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="73"/>
+    </row>
+    <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="69"/>
-      <c r="D54" s="70"/>
-    </row>
-    <row r="55" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="3" t="s">
+      <c r="C56" s="74"/>
+      <c r="D56" s="75"/>
+    </row>
+    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="72"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B56" s="3" t="s">
+      <c r="C57" s="66"/>
+      <c r="D57" s="67"/>
+    </row>
+    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="71"/>
-      <c r="D56" s="72"/>
-    </row>
-    <row r="57" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="4" t="s">
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
+    </row>
+    <row r="59" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="3"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="73"/>
+    </row>
+    <row r="60" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="68"/>
-    </row>
-    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="2" t="s">
+      <c r="C60" s="82"/>
+      <c r="D60" s="83"/>
+    </row>
+    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="69"/>
-      <c r="D58" s="70"/>
-    </row>
-    <row r="59" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="3" t="s">
+      <c r="C61" s="74"/>
+      <c r="D61" s="75"/>
+    </row>
+    <row r="62" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-    </row>
-    <row r="60" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="3" t="s">
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B63" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="71"/>
-      <c r="D60" s="72"/>
-    </row>
-    <row r="61" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="3"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
-    </row>
-    <row r="62" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="4" t="s">
+      <c r="C63" s="66"/>
+      <c r="D63" s="67"/>
+    </row>
+    <row r="64" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="73"/>
-      <c r="D62" s="74"/>
-    </row>
-    <row r="63" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="2" t="s">
+      <c r="C64" s="72"/>
+      <c r="D64" s="73"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="69"/>
-      <c r="D63" s="70"/>
-    </row>
-    <row r="64" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="3" t="s">
+      <c r="C65" s="74"/>
+      <c r="D65" s="75"/>
+    </row>
+    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="71"/>
-      <c r="D64" s="72"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="3" t="s">
+      <c r="C66" s="66"/>
+      <c r="D66" s="67"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="72"/>
-    </row>
-    <row r="66" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="4" t="s">
+      <c r="C67" s="66"/>
+      <c r="D67" s="67"/>
+    </row>
+    <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="67"/>
-      <c r="D66" s="68"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="69"/>
-      <c r="D67" s="70"/>
-    </row>
-    <row r="68" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="71"/>
-      <c r="D68" s="72"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B69" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="71"/>
-      <c r="D69" s="72"/>
-    </row>
-    <row r="70" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" s="67"/>
-      <c r="D70" s="68"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
+  <mergeCells count="43">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
@@ -4063,18 +4385,25 @@
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4084,10 +4413,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D65"/>
+  <dimension ref="B1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C50" sqref="C47:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4101,70 +4430,70 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="56"/>
+      <c r="C5" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="58"/>
+      <c r="C6" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="86"/>
+        <v>127</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>236</v>
-      </c>
-      <c r="D9" s="84"/>
+      <c r="C9" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="69"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -4189,11 +4518,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
@@ -4232,11 +4561,11 @@
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="82"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="28" t="s">
@@ -4251,19 +4580,25 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="31" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="4"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="23"/>
@@ -4272,316 +4607,212 @@
     </row>
     <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
-    </row>
-    <row r="31" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="70"/>
-    </row>
-    <row r="32" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="75"/>
+    </row>
+    <row r="32" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="72"/>
-    </row>
-    <row r="33" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="67"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
     </row>
     <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="68"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C34" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="73"/>
+    </row>
+    <row r="35" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="70"/>
+      <c r="C35" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="75"/>
     </row>
     <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="72"/>
+      <c r="C36" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="67"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
     </row>
     <row r="38" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="68"/>
-    </row>
-    <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="73"/>
+    </row>
+    <row r="39" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="70"/>
+      <c r="C39" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="D39" s="75"/>
     </row>
     <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="72"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C40" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="D40" s="67"/>
+    </row>
+    <row r="41" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="72"/>
-    </row>
-    <row r="42" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" s="67"/>
+    </row>
+    <row r="42" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="68"/>
+      <c r="C42" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="73"/>
     </row>
     <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="70"/>
+      <c r="C43" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43" s="75"/>
     </row>
     <row r="44" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
-    </row>
-    <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="67"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="72"/>
-    </row>
-    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="3"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="72"/>
-    </row>
-    <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="3"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="72"/>
-    </row>
-    <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="D45" s="67"/>
+    </row>
+    <row r="46" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="68"/>
-    </row>
-    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="2" t="s">
+      <c r="C46" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="73"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="70"/>
-    </row>
-    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="3" t="s">
+      <c r="C47" s="74"/>
+      <c r="D47" s="75"/>
+    </row>
+    <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B51" s="3" t="s">
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="72"/>
-    </row>
-    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="4" t="s">
+      <c r="C49" s="66"/>
+      <c r="D49" s="67"/>
+    </row>
+    <row r="50" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="67"/>
-      <c r="D52" s="68"/>
-    </row>
-    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="69"/>
-      <c r="D53" s="70"/>
-    </row>
-    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="72"/>
-    </row>
-    <row r="55" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="72"/>
-    </row>
-    <row r="56" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="3"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
-    </row>
-    <row r="57" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="73"/>
-      <c r="D57" s="74"/>
-    </row>
-    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="69"/>
-      <c r="D58" s="70"/>
-    </row>
-    <row r="59" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B60" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="71"/>
-      <c r="D60" s="72"/>
-    </row>
-    <row r="61" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B62" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="69"/>
-      <c r="D62" s="70"/>
-    </row>
-    <row r="63" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="71"/>
-      <c r="D63" s="72"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B64" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="71"/>
-      <c r="D64" s="72"/>
-    </row>
-    <row r="65" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="67"/>
-      <c r="D65" s="68"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="30">
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4591,9 +4822,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D72"/>
+  <dimension ref="B1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -4608,70 +4839,70 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="56"/>
+      <c r="C5" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="58"/>
+      <c r="C6" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="86"/>
+        <v>127</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="84"/>
+      <c r="C9" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="69"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -4685,15 +4916,9 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>118</v>
-      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="35"/>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="4"/>
@@ -4702,11 +4927,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
@@ -4720,443 +4945,310 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="10"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="10"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="4"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="33"/>
+    </row>
+    <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+    </row>
+    <row r="31" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="74" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-    </row>
-    <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="D31" s="75"/>
+    </row>
+    <row r="32" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="67"/>
+    </row>
+    <row r="33" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
     </row>
     <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="73"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="75"/>
+    </row>
+    <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="66" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-    </row>
-    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="82"/>
-    </row>
-    <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="2" t="s">
+      <c r="D36" s="67"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
+    </row>
+    <row r="38" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="73"/>
+    </row>
+    <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="70"/>
-    </row>
-    <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="75"/>
+    </row>
+    <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="72"/>
-    </row>
-    <row r="40" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="67"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="72"/>
-    </row>
-    <row r="41" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="66"/>
+      <c r="D41" s="67"/>
+    </row>
+    <row r="42" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="68"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="73"/>
+    </row>
+    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="70"/>
-    </row>
-    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="75"/>
+    </row>
+    <row r="44" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="72"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" s="67"/>
+    </row>
+    <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="D45" s="67"/>
+    </row>
+    <row r="46" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="D46" s="73"/>
+    </row>
+    <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="D47" s="75"/>
+    </row>
+    <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="D48" s="67"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
-    </row>
-    <row r="45" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="4" t="s">
+      <c r="C49" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49" s="67"/>
+    </row>
+    <row r="50" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="68"/>
-    </row>
-    <row r="46" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="2" t="s">
+      <c r="C50" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="D50" s="73"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B51" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="70"/>
-    </row>
-    <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="72"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="72"/>
-    </row>
-    <row r="49" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="68"/>
-    </row>
-    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="69"/>
-      <c r="D50" s="70"/>
-    </row>
-    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="72"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="75"/>
     </row>
     <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="72"/>
-    </row>
-    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="3"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="72"/>
-    </row>
-    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="3"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="72"/>
-    </row>
-    <row r="55" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="66"/>
+      <c r="D53" s="67"/>
+    </row>
+    <row r="54" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="68"/>
-    </row>
-    <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="69"/>
-      <c r="D56" s="70"/>
-    </row>
-    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="71"/>
-      <c r="D57" s="72"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B58" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="72"/>
-    </row>
-    <row r="59" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="68"/>
-    </row>
-    <row r="60" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="69"/>
-      <c r="D60" s="70"/>
-    </row>
-    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="72"/>
-    </row>
-    <row r="62" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="71"/>
-      <c r="D62" s="72"/>
-    </row>
-    <row r="63" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="3"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="68"/>
-    </row>
-    <row r="64" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="73"/>
-      <c r="D64" s="74"/>
-    </row>
-    <row r="65" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="70"/>
-    </row>
-    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="71"/>
-      <c r="D66" s="72"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="71"/>
-      <c r="D67" s="72"/>
-    </row>
-    <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="67"/>
-      <c r="D68" s="68"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B69" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="69"/>
-      <c r="D69" s="70"/>
-    </row>
-    <row r="70" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="71"/>
-      <c r="D70" s="72"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B71" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" s="71"/>
-      <c r="D71" s="72"/>
-    </row>
-    <row r="72" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="67"/>
-      <c r="D72" s="68"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="34">
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
@@ -5165,43 +5257,9 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5211,10 +5269,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D68"/>
+  <dimension ref="B1:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5228,70 +5286,70 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="56"/>
+      <c r="C5" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="58"/>
+      <c r="C6" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="86"/>
+        <v>127</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="84"/>
+      <c r="C9" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="69"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -5305,31 +5363,31 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>146</v>
+      <c r="B13" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="4"/>
-      <c r="C14" s="17"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -5340,405 +5398,1550 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>139</v>
+      <c r="B18" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="28" t="s">
-        <v>142</v>
+      <c r="B19" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="3"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="32"/>
+      <c r="B26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="10"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="34"/>
-    </row>
-    <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="4"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="B27" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B29" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B30" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="28" t="s">
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="4"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-    </row>
-    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
-    </row>
-    <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="2" t="s">
+      <c r="C39" s="80"/>
+      <c r="D39" s="81"/>
+    </row>
+    <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" s="70"/>
-    </row>
-    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="3" t="s">
+      <c r="C40" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="75"/>
+    </row>
+    <row r="41" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="72"/>
-    </row>
-    <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="3" t="s">
+      <c r="C41" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="67"/>
+    </row>
+    <row r="42" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="72"/>
-    </row>
-    <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="4" t="s">
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
+    </row>
+    <row r="43" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C43" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="73"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="75"/>
+    </row>
+    <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="67"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D46" s="67"/>
+    </row>
+    <row r="47" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="73"/>
+    </row>
+    <row r="48" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="68"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="2" t="s">
+      <c r="D48" s="75"/>
+    </row>
+    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="67"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="D50" s="67"/>
+    </row>
+    <row r="51" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="73"/>
+    </row>
+    <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="70"/>
-    </row>
-    <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="3" t="s">
+      <c r="C52" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="D52" s="75"/>
+    </row>
+    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" s="72"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="72"/>
-    </row>
-    <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="68"/>
-    </row>
-    <row r="45" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="69" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="70"/>
-    </row>
-    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="72"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47" s="72"/>
-    </row>
-    <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="68"/>
-    </row>
-    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="70"/>
-    </row>
-    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72"/>
-    </row>
-    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="72"/>
-    </row>
-    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="67"/>
-      <c r="D52" s="68"/>
-    </row>
-    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="69"/>
-      <c r="D53" s="70"/>
+      <c r="C53" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" s="67"/>
     </row>
     <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D54" s="67"/>
+    </row>
+    <row r="55" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="D55" s="73"/>
+    </row>
+    <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="D56" s="75"/>
+    </row>
+    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="72"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="3" t="s">
+      <c r="C57" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="D57" s="67"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B58" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="72"/>
-    </row>
-    <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="4" t="s">
+      <c r="C58" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" s="67"/>
+    </row>
+    <row r="59" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
-    </row>
-    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="2" t="s">
+      <c r="C59" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="73"/>
+    </row>
+    <row r="60" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="70"/>
-    </row>
-    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="3" t="s">
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
+    </row>
+    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="72"/>
-    </row>
-    <row r="59" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-    </row>
-    <row r="60" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="73"/>
-      <c r="D60" s="74"/>
-    </row>
-    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="70"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="67"/>
     </row>
     <row r="62" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="71"/>
-      <c r="D62" s="72"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="71"/>
-      <c r="D63" s="72"/>
-    </row>
-    <row r="64" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
+    </row>
+    <row r="63" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="3"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="73"/>
+    </row>
+    <row r="64" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="68"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C64" s="82"/>
+      <c r="D64" s="83"/>
+    </row>
+    <row r="65" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="70"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="75"/>
     </row>
     <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="71"/>
-      <c r="D66" s="72"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="67"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="71"/>
-      <c r="D67" s="72"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="67"/>
     </row>
     <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="67"/>
-      <c r="D68" s="68"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="73"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="74"/>
+      <c r="D69" s="75"/>
+    </row>
+    <row r="70" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="66"/>
+      <c r="D70" s="67"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B71" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="66"/>
+      <c r="D71" s="67"/>
+    </row>
+    <row r="72" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="72"/>
+      <c r="D72" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="43">
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47:F48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="1.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="55"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="57"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="57"/>
+    </row>
+    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="71"/>
+    </row>
+    <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="69"/>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
+    </row>
+    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="39"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="40"/>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="3"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="3"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="3"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="10"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="4"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="33"/>
+    </row>
+    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="33"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="80"/>
+      <c r="D36" s="81"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="75"/>
+    </row>
+    <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="67"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
+    </row>
+    <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="73"/>
+    </row>
+    <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="75"/>
+    </row>
+    <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="67"/>
+    </row>
+    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="66"/>
+      <c r="D43" s="67"/>
+    </row>
+    <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="73"/>
+    </row>
+    <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="75"/>
+    </row>
+    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="67"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="66"/>
+      <c r="D47" s="67"/>
+    </row>
+    <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="73"/>
+    </row>
+    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="74"/>
+      <c r="D49" s="75"/>
+    </row>
+    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="66"/>
+      <c r="D50" s="67"/>
+    </row>
+    <row r="51" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+    </row>
+    <row r="52" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="82"/>
+      <c r="D52" s="83"/>
+    </row>
+    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="74"/>
+      <c r="D53" s="75"/>
+    </row>
+    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="66"/>
+      <c r="D54" s="67"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="66"/>
+      <c r="D55" s="67"/>
+    </row>
+    <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="72"/>
+      <c r="D56" s="73"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="74"/>
+      <c r="D57" s="75"/>
+    </row>
+    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="66"/>
+      <c r="D59" s="67"/>
+    </row>
+    <row r="60" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="72"/>
+      <c r="D60" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="1.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="55"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="57"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="57"/>
+    </row>
+    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="71"/>
+    </row>
+    <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="69"/>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
+    </row>
+    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="3"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="10"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="4"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="33"/>
+    </row>
+    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="4"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="33"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="80"/>
+      <c r="D36" s="81"/>
+    </row>
+    <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="75"/>
+    </row>
+    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="67"/>
+    </row>
+    <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="67"/>
+    </row>
+    <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="73"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="75"/>
+    </row>
+    <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="67"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="67"/>
+    </row>
+    <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="73"/>
+    </row>
+    <row r="45" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="75"/>
+    </row>
+    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="67"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="67"/>
+    </row>
+    <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="73"/>
+    </row>
+    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="74"/>
+      <c r="D49" s="75"/>
+    </row>
+    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="66"/>
+      <c r="D50" s="67"/>
+    </row>
+    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+    </row>
+    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="72"/>
+      <c r="D52" s="73"/>
+    </row>
+    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="74"/>
+      <c r="D53" s="75"/>
+    </row>
+    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="66"/>
+      <c r="D54" s="67"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="66"/>
+      <c r="D55" s="67"/>
+    </row>
+    <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="72"/>
+      <c r="D56" s="73"/>
+    </row>
+    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="74"/>
+      <c r="D57" s="75"/>
+    </row>
+    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
+    </row>
+    <row r="59" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="66"/>
+      <c r="D59" s="67"/>
+    </row>
+    <row r="60" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="82"/>
+      <c r="D60" s="83"/>
+    </row>
+    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="74"/>
+      <c r="D61" s="75"/>
+    </row>
+    <row r="62" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="66"/>
+      <c r="D63" s="67"/>
+    </row>
+    <row r="64" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="72"/>
+      <c r="D64" s="73"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="74"/>
+      <c r="D65" s="75"/>
+    </row>
+    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="66"/>
+      <c r="D66" s="67"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="66"/>
+      <c r="D67" s="67"/>
+    </row>
+    <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="72"/>
+      <c r="D68" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
@@ -5751,30 +6954,12 @@
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5801,57 +6986,57 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="58"/>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="59"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="13" t="s">
@@ -5939,57 +7124,57 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="58"/>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="59"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="13" t="s">
@@ -6134,7 +7319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -6156,29 +7341,29 @@
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
     </row>
     <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="13" t="s">
@@ -6282,10 +7467,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D68"/>
+  <dimension ref="B1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6299,70 +7484,70 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="56"/>
+      <c r="C5" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="58"/>
+      <c r="C6" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="86"/>
+        <v>127</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="84"/>
+      <c r="C9" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="69"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -6387,11 +7572,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="37" t="s">
@@ -6406,57 +7591,57 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -6495,11 +7680,11 @@
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="28" t="s">
@@ -6512,322 +7697,261 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="4"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-    </row>
-    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="80" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
-    </row>
-    <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
+    </row>
+    <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="70"/>
-    </row>
-    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="72"/>
+      <c r="C38" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="75"/>
     </row>
     <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="67"/>
+    </row>
+    <row r="40" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="72"/>
-    </row>
-    <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="67"/>
+    </row>
+    <row r="41" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="68"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="73"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="69" t="s">
+      <c r="C42" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="75"/>
+    </row>
+    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="67"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="67"/>
+    </row>
+    <row r="45" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="70"/>
-    </row>
-    <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="3" t="s">
+      <c r="D45" s="73"/>
+    </row>
+    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="74"/>
+      <c r="D46" s="75"/>
+    </row>
+    <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="72"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="3" t="s">
+      <c r="C47" s="66"/>
+      <c r="D47" s="67"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="72"/>
-    </row>
-    <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="4" t="s">
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+    </row>
+    <row r="49" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="68"/>
-    </row>
-    <row r="45" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="2" t="s">
+      <c r="C49" s="72"/>
+      <c r="D49" s="73"/>
+    </row>
+    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="D45" s="70"/>
-    </row>
-    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="72"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" s="72"/>
-    </row>
-    <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="68"/>
-    </row>
-    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" s="70"/>
-    </row>
-    <row r="50" spans="2:4" s="42" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" s="76"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="75"/>
     </row>
     <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="D51" s="72"/>
-    </row>
-    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+    </row>
+    <row r="52" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="67"/>
-      <c r="D52" s="68"/>
-    </row>
-    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="82"/>
+      <c r="D53" s="83"/>
+    </row>
+    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="69"/>
-      <c r="D53" s="70"/>
-    </row>
-    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="74"/>
+      <c r="D54" s="75"/>
+    </row>
+    <row r="55" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="72"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="66"/>
+      <c r="D55" s="67"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="72"/>
-    </row>
-    <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="66"/>
+      <c r="D56" s="67"/>
+    </row>
+    <row r="57" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
-    </row>
-    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="72"/>
+      <c r="D57" s="73"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B58" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="70"/>
-    </row>
-    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="74"/>
+      <c r="D58" s="75"/>
+    </row>
+    <row r="59" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="72"/>
-    </row>
-    <row r="59" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="66"/>
+      <c r="D59" s="67"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-    </row>
-    <row r="60" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="66"/>
+      <c r="D60" s="67"/>
+    </row>
+    <row r="61" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="73"/>
-      <c r="D60" s="74"/>
-    </row>
-    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="70"/>
-    </row>
-    <row r="62" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="71"/>
-      <c r="D62" s="72"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="71"/>
-      <c r="D63" s="72"/>
-    </row>
-    <row r="64" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="68"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="70"/>
-    </row>
-    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="71"/>
-      <c r="D66" s="72"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="71"/>
-      <c r="D67" s="72"/>
-    </row>
-    <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="67"/>
-      <c r="D68" s="68"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="34">
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C44:D44"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B37:D37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6837,10 +7961,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D60"/>
+  <dimension ref="B1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47:F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6854,70 +7978,70 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="56"/>
+      <c r="C5" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="58"/>
+      <c r="C6" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="86"/>
+        <v>127</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="84"/>
+      <c r="C9" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="69"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -6931,9 +8055,15 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="39"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="4"/>
@@ -6942,11 +8072,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="37" t="s">
@@ -6960,48 +8090,24 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>183</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>192</v>
-      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>197</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>197</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
@@ -7044,11 +8150,11 @@
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="28" t="s">
@@ -7062,12 +8168,8 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>135</v>
-      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="33"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
@@ -7077,201 +8179,279 @@
     </row>
     <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C36" s="80"/>
+      <c r="D36" s="81"/>
+    </row>
+    <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="70"/>
-    </row>
-    <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C37" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="75"/>
+    </row>
+    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="72"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C38" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="67"/>
+    </row>
+    <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="67"/>
     </row>
     <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="68"/>
-    </row>
-    <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="73"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="70"/>
+      <c r="C41" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="75"/>
     </row>
     <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="D42" s="72"/>
-    </row>
-    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C42" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="85"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
+        <v>68</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="67"/>
     </row>
     <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" s="68"/>
-    </row>
-    <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="73"/>
+    </row>
+    <row r="45" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="70"/>
+      <c r="C45" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="75"/>
     </row>
     <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="71" t="s">
-        <v>202</v>
-      </c>
-      <c r="D46" s="72"/>
+      <c r="C46" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="67"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="72"/>
+      <c r="C47" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="67"/>
     </row>
     <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="68"/>
+      <c r="C48" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="73"/>
     </row>
     <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="70"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="75"/>
     </row>
     <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72"/>
-    </row>
-    <row r="51" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C50" s="66"/>
+      <c r="D50" s="67"/>
+    </row>
+    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="72"/>
-    </row>
-    <row r="52" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+    </row>
+    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="74"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="73"/>
     </row>
     <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="69"/>
-      <c r="D53" s="70"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="75"/>
     </row>
     <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="72"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="67"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="72"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="67"/>
     </row>
     <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C56" s="72"/>
+      <c r="D56" s="73"/>
+    </row>
+    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="70"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="75"/>
     </row>
     <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="72"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
+    </row>
+    <row r="59" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-    </row>
-    <row r="60" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C59" s="66"/>
+      <c r="D59" s="67"/>
+    </row>
+    <row r="60" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="67"/>
-      <c r="D60" s="68"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="83"/>
+    </row>
+    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="74"/>
+      <c r="D61" s="75"/>
+    </row>
+    <row r="62" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="66"/>
+      <c r="D63" s="67"/>
+    </row>
+    <row r="64" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="72"/>
+      <c r="D64" s="73"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="74"/>
+      <c r="D65" s="75"/>
+    </row>
+    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="66"/>
+      <c r="D66" s="67"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="66"/>
+      <c r="D67" s="67"/>
+    </row>
+    <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="72"/>
+      <c r="D68" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="42">
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
@@ -7279,32 +8459,24 @@
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7316,8 +8488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7331,70 +8503,70 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="56"/>
+      <c r="C5" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" s="58"/>
+      <c r="C6" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="86"/>
+        <v>127</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="2:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="84"/>
+      <c r="C9" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="69"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="31" t="s">
@@ -7414,11 +8586,11 @@
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="37" t="s">
@@ -7432,8 +8604,12 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="3"/>
-      <c r="C17" s="27"/>
+      <c r="B17" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>241</v>
+      </c>
       <c r="D17" s="32"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
@@ -7457,11 +8633,11 @@
       <c r="D22" s="23"/>
     </row>
     <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="82"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="28" t="s">
@@ -7486,204 +8662,210 @@
     </row>
     <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
     </row>
     <row r="29" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="D29" s="70"/>
+      <c r="C29" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="75"/>
     </row>
     <row r="30" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="D30" s="72"/>
+      <c r="C30" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" s="67"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
     </row>
     <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="68"/>
+      <c r="C32" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="73"/>
     </row>
     <row r="33" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="D33" s="70"/>
+      <c r="C33" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="75"/>
     </row>
     <row r="34" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="71" t="s">
-        <v>229</v>
-      </c>
-      <c r="D34" s="72"/>
+      <c r="C34" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="67"/>
     </row>
     <row r="35" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="71" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" s="72"/>
+      <c r="C35" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" s="67"/>
     </row>
     <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="67" t="s">
-        <v>231</v>
-      </c>
-      <c r="D36" s="68"/>
+      <c r="C36" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="73"/>
     </row>
     <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="70"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="75"/>
     </row>
     <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="72"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
     </row>
     <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="68"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="73"/>
     </row>
     <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="70"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="75"/>
     </row>
     <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="72"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
     </row>
     <row r="43" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="67"/>
     </row>
     <row r="44" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="74"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
     </row>
     <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="70"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="75"/>
     </row>
     <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="72"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="72"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="67"/>
     </row>
     <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="68"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="73"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="70"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="75"/>
     </row>
     <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="67"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="72"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
     </row>
     <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="67"/>
-      <c r="D52" s="68"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
@@ -7696,20 +8878,14 @@
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7721,8 +8897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7736,70 +8912,70 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="56"/>
+      <c r="C5" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="58"/>
+      <c r="C6" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="86"/>
+        <v>127</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="2:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="84"/>
+      <c r="C9" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="69"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -7814,13 +8990,13 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -7830,11 +9006,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="37" t="s">
@@ -7849,13 +9025,13 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -7884,11 +9060,11 @@
       <c r="D24" s="23"/>
     </row>
     <row r="25" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="28" t="s">
@@ -7913,232 +9089,258 @@
     </row>
     <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="70"/>
+      <c r="C31" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="75"/>
     </row>
     <row r="32" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="71" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="72"/>
+      <c r="C32" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="67"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="72"/>
+      <c r="C33" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="67"/>
     </row>
     <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="68"/>
+      <c r="C34" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="73"/>
     </row>
     <row r="35" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="D35" s="70"/>
+      <c r="C35" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="75"/>
     </row>
     <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="72"/>
+      <c r="C36" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="67"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
     </row>
     <row r="38" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="68"/>
+      <c r="C38" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="73"/>
     </row>
     <row r="39" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="D39" s="70"/>
+      <c r="C39" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" s="75"/>
     </row>
     <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="D40" s="72"/>
+      <c r="C40" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" s="67"/>
     </row>
     <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="71" t="s">
-        <v>222</v>
-      </c>
-      <c r="D41" s="72"/>
+      <c r="C41" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="67"/>
     </row>
     <row r="42" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="68"/>
+      <c r="C42" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="73"/>
     </row>
     <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="70"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="75"/>
     </row>
     <row r="44" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="67"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="72"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="67"/>
     </row>
     <row r="46" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="68"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="73"/>
     </row>
     <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="70"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="75"/>
     </row>
     <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="72"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
     </row>
     <row r="49" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="72"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="67"/>
     </row>
     <row r="50" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="74"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="83"/>
     </row>
     <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="70"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="75"/>
     </row>
     <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="72"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="71"/>
-      <c r="D53" s="72"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="67"/>
     </row>
     <row r="54" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B54" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="68"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="73"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="70"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="75"/>
     </row>
     <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="71"/>
-      <c r="D56" s="72"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="67"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="71"/>
-      <c r="D57" s="72"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="67"/>
     </row>
     <row r="58" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B58" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="67"/>
-      <c r="D58" s="68"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
@@ -8151,32 +9353,6 @@
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8203,70 +9379,70 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="56"/>
+      <c r="C5" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="58"/>
+      <c r="C6" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="57"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="57"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="86"/>
+        <v>127</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="2:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="84"/>
+      <c r="C9" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="69"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="31" t="s">
@@ -8286,11 +9462,11 @@
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="37" t="s">
@@ -8305,35 +9481,35 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
@@ -8367,11 +9543,11 @@
       <c r="D26" s="23"/>
     </row>
     <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="28" t="s">
@@ -8396,222 +9572,248 @@
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="70"/>
+      <c r="C33" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="75"/>
     </row>
     <row r="34" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="71" t="s">
-        <v>217</v>
-      </c>
-      <c r="D34" s="72"/>
+      <c r="C34" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="67"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="72"/>
+      <c r="C35" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="67"/>
     </row>
     <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="68"/>
+      <c r="C36" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="73"/>
     </row>
     <row r="37" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="D37" s="70"/>
+      <c r="C37" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="75"/>
     </row>
     <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="72"/>
+      <c r="C38" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="67"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
     </row>
     <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="68"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="73"/>
     </row>
     <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="70"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="75"/>
     </row>
     <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="72"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
     </row>
     <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="67"/>
     </row>
     <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="68"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="73"/>
     </row>
     <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="70"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="75"/>
     </row>
     <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="72"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="72"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="67"/>
     </row>
     <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="68"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="73"/>
     </row>
     <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="70"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="75"/>
     </row>
     <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="67"/>
     </row>
     <row r="51" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="72"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
     </row>
     <row r="52" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="74"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="83"/>
     </row>
     <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="69"/>
-      <c r="D53" s="70"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="75"/>
     </row>
     <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="71"/>
-      <c r="D54" s="72"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="67"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="72"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="67"/>
     </row>
     <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="73"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="70"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="75"/>
     </row>
     <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="72"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="67"/>
     </row>
     <row r="60" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="67"/>
-      <c r="D60" s="68"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
@@ -8624,32 +9826,6 @@
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/仕様書/仕様書.xlsx
+++ b/仕様書/仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\circle\resource\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="7890" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="7890" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -17,16 +17,15 @@
     <sheet name="詳細" sheetId="1" r:id="rId3"/>
     <sheet name="詳細 (2)" sheetId="10" r:id="rId4"/>
     <sheet name="GameMgr" sheetId="15" r:id="rId5"/>
-    <sheet name="DamageCul" sheetId="21" r:id="rId6"/>
-    <sheet name="save lord" sheetId="19" r:id="rId7"/>
-    <sheet name="Button Mgr" sheetId="18" r:id="rId8"/>
-    <sheet name="BaseButton" sheetId="17" r:id="rId9"/>
-    <sheet name="fairy" sheetId="13" r:id="rId10"/>
-    <sheet name="Creater" sheetId="22" r:id="rId11"/>
-    <sheet name="CharaMgr" sheetId="20" r:id="rId12"/>
-    <sheet name="Unit" sheetId="11" r:id="rId13"/>
-    <sheet name="mapsSelect" sheetId="16" r:id="rId14"/>
-    <sheet name="map" sheetId="14" r:id="rId15"/>
+    <sheet name="save lord" sheetId="19" r:id="rId6"/>
+    <sheet name="Button Mgr" sheetId="18" r:id="rId7"/>
+    <sheet name="BaseButton" sheetId="17" r:id="rId8"/>
+    <sheet name="fairy" sheetId="13" r:id="rId9"/>
+    <sheet name="Creater" sheetId="22" r:id="rId10"/>
+    <sheet name="CharaMgr" sheetId="20" r:id="rId11"/>
+    <sheet name="Unit" sheetId="11" r:id="rId12"/>
+    <sheet name="mapsSelect" sheetId="16" r:id="rId13"/>
+    <sheet name="map" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="286">
   <si>
     <t>オブジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1249,10 +1248,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int MoveRange(int move)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>地形の移動量計算</t>
     <rPh sb="0" eb="2">
       <t>チケイ</t>
@@ -1905,27 +1900,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>damageCul</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>damage計算</t>
-    <rPh sb="6" eb="8">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戦闘を行う</t>
-    <rPh sb="0" eb="2">
-      <t>セントウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>private int</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2255,6 +2229,45 @@
     <rPh sb="23" eb="24">
       <t>ツク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int MoveRange(int move,map _map)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの地形情報</t>
+    <rPh sb="4" eb="6">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int FIleRead(const string _path)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル内容を読み込む</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private string</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3110,18 +3123,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3152,16 +3153,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3853,566 +3866,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:D56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="43.875" customWidth="1"/>
-    <col min="5" max="5" width="1.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-    </row>
-    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-    </row>
-    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="55"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="57"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="57"/>
-    </row>
-    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="71"/>
-    </row>
-    <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="69"/>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
-    </row>
-    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="35"/>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="4"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="3"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="32"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="3"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="3"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="10"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="34"/>
-    </row>
-    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="4"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-    </row>
-    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="4"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="24"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-    </row>
-    <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="81"/>
-    </row>
-    <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="75"/>
-    </row>
-    <row r="37" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="67"/>
-    </row>
-    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
-    </row>
-    <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="73"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="75"/>
-    </row>
-    <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="67"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
-    </row>
-    <row r="43" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="73"/>
-    </row>
-    <row r="44" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="75"/>
-    </row>
-    <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="67"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
-    </row>
-    <row r="47" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="72" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="73"/>
-    </row>
-    <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="75"/>
-    </row>
-    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="66" t="s">
-        <v>246</v>
-      </c>
-      <c r="D49" s="67"/>
-    </row>
-    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="67"/>
-    </row>
-    <row r="51" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="D51" s="73"/>
-    </row>
-    <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="D52" s="75"/>
-    </row>
-    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="D53" s="67"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B54" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54" s="67"/>
-    </row>
-    <row r="55" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="73"/>
-    </row>
-    <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="74"/>
-      <c r="D56" s="75"/>
-    </row>
-    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="66"/>
-      <c r="D57" s="67"/>
-    </row>
-    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
-    </row>
-    <row r="59" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="3"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="73"/>
-    </row>
-    <row r="60" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="82"/>
-      <c r="D60" s="83"/>
-    </row>
-    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="75"/>
-    </row>
-    <row r="62" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="66"/>
-      <c r="D62" s="67"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="67"/>
-    </row>
-    <row r="64" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="73"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="75"/>
-    </row>
-    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="66"/>
-      <c r="D67" s="67"/>
-    </row>
-    <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="73"/>
-    </row>
-  </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D50"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
@@ -4447,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D5" s="55"/>
     </row>
@@ -4456,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D6" s="57"/>
     </row>
@@ -4473,27 +3926,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="71"/>
+      <c r="D8" s="81"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="68" t="s">
-        <v>271</v>
-      </c>
-      <c r="D9" s="69"/>
+      <c r="C9" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -4518,11 +3971,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
@@ -4561,11 +4014,11 @@
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="28" t="s">
@@ -4580,24 +4033,24 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="31" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
@@ -4607,20 +4060,20 @@
     </row>
     <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="71"/>
     </row>
     <row r="32" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
@@ -4642,19 +4095,19 @@
       <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="73"/>
+      <c r="D34" s="69"/>
     </row>
     <row r="35" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="75"/>
+      <c r="D35" s="71"/>
     </row>
     <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
@@ -4676,26 +4129,26 @@
       <c r="B38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="73"/>
+      <c r="D38" s="69"/>
     </row>
     <row r="39" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="74" t="s">
-        <v>266</v>
-      </c>
-      <c r="D39" s="75"/>
+      <c r="C39" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="D39" s="71"/>
     </row>
     <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D40" s="67"/>
     </row>
@@ -4704,7 +4157,7 @@
         <v>68</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D41" s="67"/>
     </row>
@@ -4712,26 +4165,26 @@
       <c r="B42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="73"/>
+      <c r="D42" s="69"/>
     </row>
     <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="74" t="s">
-        <v>267</v>
-      </c>
-      <c r="D43" s="75"/>
+      <c r="C43" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" s="71"/>
     </row>
     <row r="44" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D44" s="67"/>
     </row>
@@ -4740,7 +4193,7 @@
         <v>68</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D45" s="67"/>
     </row>
@@ -4748,17 +4201,17 @@
       <c r="B46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="72" t="s">
+      <c r="C46" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="73"/>
+      <c r="D46" s="69"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="75"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="71"/>
     </row>
     <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
@@ -4778,16 +4231,11 @@
       <c r="B50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="73"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
@@ -4795,6 +4243,11 @@
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
@@ -4820,7 +4273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D54"/>
   <sheetViews>
@@ -4856,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" s="55"/>
     </row>
@@ -4865,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="57"/>
     </row>
@@ -4882,27 +4335,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="71"/>
+      <c r="D8" s="81"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="68" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="69"/>
+      <c r="C9" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -4927,11 +4380,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
@@ -4970,11 +4423,11 @@
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="28" t="s">
@@ -4989,24 +4442,24 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>234</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
@@ -5016,20 +4469,20 @@
     </row>
     <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
     </row>
     <row r="31" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="71"/>
     </row>
     <row r="32" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
@@ -5051,19 +4504,19 @@
       <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="73"/>
+      <c r="D34" s="69"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="75"/>
+      <c r="D35" s="71"/>
     </row>
     <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
@@ -5085,19 +4538,19 @@
       <c r="B38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="73"/>
+      <c r="D38" s="69"/>
     </row>
     <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="75"/>
+      <c r="D39" s="71"/>
     </row>
     <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
@@ -5119,26 +4572,26 @@
       <c r="B42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="73"/>
+      <c r="D42" s="69"/>
     </row>
     <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="74" t="s">
-        <v>269</v>
-      </c>
-      <c r="D43" s="75"/>
+      <c r="C43" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="D43" s="71"/>
     </row>
     <row r="44" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D44" s="67"/>
     </row>
@@ -5147,7 +4600,7 @@
         <v>70</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D45" s="67"/>
     </row>
@@ -5155,26 +4608,26 @@
       <c r="B46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="72" t="s">
-        <v>262</v>
-      </c>
-      <c r="D46" s="73"/>
+      <c r="C46" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="D46" s="69"/>
     </row>
     <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="74" t="s">
-        <v>264</v>
-      </c>
-      <c r="D47" s="75"/>
+      <c r="C47" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="D47" s="71"/>
     </row>
     <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D48" s="67"/>
     </row>
@@ -5183,7 +4636,7 @@
         <v>68</v>
       </c>
       <c r="C49" s="66" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D49" s="67"/>
     </row>
@@ -5191,17 +4644,17 @@
       <c r="B50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="72" t="s">
-        <v>262</v>
-      </c>
-      <c r="D50" s="73"/>
+      <c r="C50" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="D50" s="69"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B51" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="75"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="71"/>
     </row>
     <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
@@ -5221,8 +4674,8 @@
       <c r="B54" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="73"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -5267,11 +4720,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
@@ -5329,27 +4782,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="71"/>
+      <c r="D8" s="81"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="69"/>
+      <c r="C9" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -5380,11 +4833,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
@@ -5498,35 +4951,35 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="34" t="s">
         <v>171</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="41" t="s">
         <v>248</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
@@ -5534,10 +4987,10 @@
         <v>81</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -5557,11 +5010,11 @@
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="28" t="s">
@@ -5592,20 +5045,20 @@
     </row>
     <row r="38" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="77"/>
     </row>
     <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="74" t="s">
+      <c r="C40" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="75"/>
+      <c r="D40" s="71"/>
     </row>
     <row r="41" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
@@ -5627,19 +5080,19 @@
       <c r="B43" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="73"/>
+      <c r="D43" s="69"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B44" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="74" t="s">
+      <c r="C44" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="75"/>
+      <c r="D44" s="71"/>
     </row>
     <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="3" t="s">
@@ -5655,7 +5108,7 @@
         <v>68</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D46" s="67"/>
     </row>
@@ -5663,19 +5116,19 @@
       <c r="B47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="72" t="s">
+      <c r="C47" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="73"/>
+      <c r="D47" s="69"/>
     </row>
     <row r="48" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="74" t="s">
+      <c r="C48" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="75"/>
+      <c r="D48" s="71"/>
     </row>
     <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
@@ -5691,7 +5144,7 @@
         <v>68</v>
       </c>
       <c r="C50" s="66" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D50" s="67"/>
     </row>
@@ -5699,26 +5152,26 @@
       <c r="B51" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="72" t="s">
+      <c r="C51" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="73"/>
+      <c r="D51" s="69"/>
     </row>
     <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="D52" s="75"/>
+      <c r="C52" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="71"/>
     </row>
     <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D53" s="67"/>
     </row>
@@ -5727,7 +5180,7 @@
         <v>70</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D54" s="67"/>
     </row>
@@ -5735,26 +5188,26 @@
       <c r="B55" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="D55" s="73"/>
+      <c r="C55" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="69"/>
     </row>
     <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="74" t="s">
-        <v>254</v>
-      </c>
-      <c r="D56" s="75"/>
+      <c r="C56" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" s="71"/>
     </row>
     <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C57" s="66" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D57" s="67"/>
     </row>
@@ -5763,7 +5216,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D58" s="67"/>
     </row>
@@ -5771,17 +5224,17 @@
       <c r="B59" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="72" t="s">
+      <c r="C59" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="73"/>
+      <c r="D59" s="69"/>
     </row>
     <row r="60" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="71"/>
     </row>
     <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
@@ -5799,22 +5252,22 @@
     </row>
     <row r="63" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B63" s="3"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="73"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="69"/>
     </row>
     <row r="64" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="83"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="85"/>
     </row>
     <row r="65" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="75"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="71"/>
     </row>
     <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
@@ -5834,15 +5287,15 @@
       <c r="B68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="73"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="69"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B69" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="74"/>
-      <c r="D69" s="75"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="71"/>
     </row>
     <row r="70" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
@@ -5862,8 +5315,8 @@
       <c r="B72" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="72"/>
-      <c r="D72" s="73"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -5917,11 +5370,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F47" sqref="F47:F48"/>
     </sheetView>
   </sheetViews>
@@ -5953,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="55"/>
     </row>
@@ -5962,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="57"/>
     </row>
@@ -5979,27 +5432,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="71"/>
+      <c r="D8" s="81"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="69"/>
+      <c r="C9" s="78" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -6024,11 +5477,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="37" t="s">
@@ -6043,46 +5496,46 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="38" t="s">
         <v>132</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="D19" s="32" t="s">
         <v>188</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>193</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
@@ -6126,11 +5579,11 @@
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="28" t="s">
@@ -6145,7 +5598,7 @@
     </row>
     <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>132</v>
@@ -6159,27 +5612,27 @@
     </row>
     <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="75"/>
+      <c r="D37" s="71"/>
     </row>
     <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D38" s="67"/>
     </row>
@@ -6194,26 +5647,26 @@
       <c r="B40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="73"/>
+      <c r="D40" s="69"/>
     </row>
     <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="75"/>
+      <c r="C41" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="71"/>
     </row>
     <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D42" s="67"/>
     </row>
@@ -6228,26 +5681,26 @@
       <c r="B44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="73"/>
+      <c r="C44" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="69"/>
     </row>
     <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="D45" s="75"/>
+      <c r="C45" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="71"/>
     </row>
     <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D46" s="67"/>
     </row>
@@ -6262,17 +5715,17 @@
       <c r="B48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="73"/>
+      <c r="D48" s="69"/>
     </row>
     <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="75"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="71"/>
     </row>
     <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
@@ -6292,15 +5745,15 @@
       <c r="B52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="82"/>
-      <c r="D52" s="83"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="85"/>
     </row>
     <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="75"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="71"/>
     </row>
     <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
@@ -6320,15 +5773,15 @@
       <c r="B56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="72"/>
-      <c r="D56" s="73"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="69"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="71"/>
     </row>
     <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
@@ -6348,8 +5801,8 @@
       <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="72"/>
-      <c r="D60" s="73"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -6394,12 +5847,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6456,27 +5909,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="71"/>
+      <c r="D8" s="81"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="69"/>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -6507,11 +5960,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="37" t="s">
@@ -6526,7 +5979,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="C18" s="38" t="s">
         <v>136</v>
@@ -6570,46 +6023,46 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>182</v>
-      </c>
       <c r="D22" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="D23" s="32" t="s">
         <v>184</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C25" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="32" t="s">
         <v>196</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
@@ -6633,11 +6086,11 @@
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="28" t="s">
@@ -6662,20 +6115,20 @@
     </row>
     <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
     </row>
     <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="75"/>
+      <c r="C37" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="71"/>
     </row>
     <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
@@ -6699,26 +6152,26 @@
       <c r="B40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="73"/>
+      <c r="D40" s="69"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="75"/>
+      <c r="D41" s="71"/>
     </row>
     <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D42" s="67"/>
     </row>
@@ -6735,26 +6188,26 @@
       <c r="B44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="72" t="s">
+      <c r="C44" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="73"/>
+      <c r="D44" s="69"/>
     </row>
     <row r="45" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="75"/>
+      <c r="C45" s="70" t="s">
+        <v>282</v>
+      </c>
+      <c r="D45" s="71"/>
     </row>
     <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="D46" s="67"/>
     </row>
@@ -6763,7 +6216,7 @@
         <v>68</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>155</v>
+        <v>284</v>
       </c>
       <c r="D47" s="67"/>
     </row>
@@ -6771,17 +6224,17 @@
       <c r="B48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="73"/>
+      <c r="C48" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="69"/>
     </row>
     <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="75"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="71"/>
     </row>
     <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
@@ -6801,15 +6254,15 @@
       <c r="B52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="73"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="69"/>
     </row>
     <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="75"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="71"/>
     </row>
     <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
@@ -6829,15 +6282,15 @@
       <c r="B56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="72"/>
-      <c r="D56" s="73"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="69"/>
     </row>
     <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="71"/>
     </row>
     <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
@@ -6857,15 +6310,15 @@
       <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="82"/>
-      <c r="D60" s="83"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="85"/>
     </row>
     <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="75"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="71"/>
     </row>
     <row r="62" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
@@ -6885,15 +6338,15 @@
       <c r="B64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="73"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="69"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="75"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="71"/>
     </row>
     <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
@@ -6913,11 +6366,15 @@
       <c r="B68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="73"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
@@ -6936,10 +6393,6 @@
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C44:D44"/>
@@ -7467,10 +6920,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D61"/>
+  <dimension ref="B1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7501,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="55"/>
     </row>
@@ -7510,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="57"/>
     </row>
@@ -7527,27 +6980,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="71"/>
+      <c r="D8" s="81"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="69"/>
+      <c r="C9" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -7572,11 +7025,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="37" t="s">
@@ -7635,13 +7088,13 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="D22" s="32" t="s">
         <v>158</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -7680,11 +7133,11 @@
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="77"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="28" t="s">
@@ -7699,24 +7152,24 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="31" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
@@ -7726,27 +7179,27 @@
     </row>
     <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="37" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="77"/>
     </row>
     <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="74" t="s">
+      <c r="C38" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="75"/>
+      <c r="D38" s="71"/>
     </row>
     <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D39" s="67"/>
     </row>
@@ -7763,26 +7216,26 @@
       <c r="B41" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="73"/>
+      <c r="D41" s="69"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B42" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="74" t="s">
+      <c r="C42" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="75"/>
+      <c r="D42" s="71"/>
     </row>
     <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D43" s="67"/>
     </row>
@@ -7799,126 +7252,212 @@
       <c r="B45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="72" t="s">
+      <c r="C45" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="73"/>
+      <c r="D45" s="69"/>
     </row>
     <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="74"/>
-      <c r="D46" s="75"/>
+      <c r="C46" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="71"/>
     </row>
     <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="66"/>
+      <c r="C47" s="66" t="s">
+        <v>164</v>
+      </c>
       <c r="D47" s="67"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="66"/>
+      <c r="C48" s="66" t="s">
+        <v>165</v>
+      </c>
       <c r="D48" s="67"/>
     </row>
     <row r="49" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="73"/>
+      <c r="C49" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="69"/>
     </row>
     <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="74"/>
-      <c r="D50" s="75"/>
+      <c r="C50" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="71"/>
     </row>
     <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C51" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="83"/>
+    </row>
+    <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="66"/>
+      <c r="C52" s="66" t="s">
+        <v>165</v>
+      </c>
       <c r="D52" s="67"/>
     </row>
     <row r="53" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="82"/>
-      <c r="D53" s="83"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="69"/>
     </row>
     <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="74"/>
-      <c r="D54" s="75"/>
+      <c r="C54" s="70" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" s="71"/>
     </row>
     <row r="55" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="66"/>
+      <c r="C55" s="66" t="s">
+        <v>153</v>
+      </c>
       <c r="D55" s="67"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="66"/>
+      <c r="C56" s="66" t="s">
+        <v>154</v>
+      </c>
       <c r="D56" s="67"/>
     </row>
-    <row r="57" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="4" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B57" s="10"/>
+      <c r="C57" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" s="67"/>
+    </row>
+    <row r="58" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="72"/>
-      <c r="D57" s="73"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="69"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B59" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="74"/>
-      <c r="D58" s="75"/>
-    </row>
-    <row r="59" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="70"/>
+      <c r="D59" s="71"/>
+    </row>
+    <row r="60" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="67"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B60" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C60" s="66"/>
       <c r="D60" s="67"/>
     </row>
-    <row r="61" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="4" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B61" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="66"/>
+      <c r="D61" s="67"/>
+    </row>
+    <row r="62" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="73"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="69"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="70"/>
+      <c r="D63" s="71"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="66"/>
+      <c r="D64" s="67"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="66"/>
+      <c r="D65" s="67"/>
+    </row>
+    <row r="66" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="68"/>
+      <c r="D66" s="69"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="70"/>
+      <c r="D67" s="71"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="66"/>
+      <c r="D68" s="67"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="66"/>
+      <c r="D69" s="67"/>
+    </row>
+    <row r="70" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="68"/>
+      <c r="D70" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C61:D61"/>
+  <mergeCells count="43">
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C62:D62"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
@@ -7926,10 +7465,21 @@
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="C57:D57"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C46:D46"/>
@@ -7937,21 +7487,18 @@
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7960,531 +7507,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B21:C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="43.875" customWidth="1"/>
-    <col min="5" max="5" width="1.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-    </row>
-    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-    </row>
-    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="55"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="57"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="57"/>
-    </row>
-    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="71"/>
-    </row>
-    <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="D9" s="69"/>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
-    </row>
-    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="4"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="3"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="28"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="32"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="3"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="32"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="32"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="3"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="32"/>
-    </row>
-    <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="3"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="32"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="3"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="3"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="3"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="10"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="34"/>
-    </row>
-    <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="4"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-    </row>
-    <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="4"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-    </row>
-    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-    </row>
-    <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="75"/>
-    </row>
-    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="67"/>
-    </row>
-    <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="67"/>
-    </row>
-    <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="73"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="75"/>
-    </row>
-    <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="85"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="67"/>
-    </row>
-    <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="73"/>
-    </row>
-    <row r="45" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="75"/>
-    </row>
-    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" s="67"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="67"/>
-    </row>
-    <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="73"/>
-    </row>
-    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="75"/>
-    </row>
-    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="66"/>
-      <c r="D50" s="67"/>
-    </row>
-    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="73"/>
-    </row>
-    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="75"/>
-    </row>
-    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="67"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="67"/>
-    </row>
-    <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="72"/>
-      <c r="D56" s="73"/>
-    </row>
-    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
-    </row>
-    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
-    </row>
-    <row r="59" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="67"/>
-    </row>
-    <row r="60" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="82"/>
-      <c r="D60" s="83"/>
-    </row>
-    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="75"/>
-    </row>
-    <row r="62" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="66"/>
-      <c r="D62" s="67"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="67"/>
-    </row>
-    <row r="64" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="73"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="74"/>
-      <c r="D65" s="75"/>
-    </row>
-    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="66"/>
-      <c r="D67" s="67"/>
-    </row>
-    <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="73"/>
-    </row>
-  </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D52"/>
   <sheetViews>
@@ -8520,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" s="55"/>
     </row>
@@ -8529,7 +7551,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" s="57"/>
     </row>
@@ -8546,27 +7568,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="71"/>
+      <c r="D8" s="81"/>
     </row>
     <row r="9" spans="2:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9" s="69"/>
+      <c r="C9" s="78" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="31" t="s">
@@ -8586,11 +7608,11 @@
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="37" t="s">
@@ -8605,10 +7627,10 @@
     </row>
     <row r="17" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D17" s="32"/>
     </row>
@@ -8633,11 +7655,11 @@
       <c r="D22" s="23"/>
     </row>
     <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="28" t="s">
@@ -8662,27 +7684,27 @@
     </row>
     <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
     </row>
     <row r="29" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="74" t="s">
-        <v>229</v>
-      </c>
-      <c r="D29" s="75"/>
+      <c r="C29" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" s="71"/>
     </row>
     <row r="30" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D30" s="67"/>
     </row>
@@ -8697,26 +7719,26 @@
       <c r="B32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="73"/>
+      <c r="D32" s="69"/>
     </row>
     <row r="33" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="74" t="s">
-        <v>230</v>
-      </c>
-      <c r="D33" s="75"/>
+      <c r="C33" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="71"/>
     </row>
     <row r="34" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D34" s="67"/>
     </row>
@@ -8725,7 +7747,7 @@
         <v>70</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D35" s="67"/>
     </row>
@@ -8733,17 +7755,17 @@
       <c r="B36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="72" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" s="73"/>
+      <c r="C36" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="69"/>
     </row>
     <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="71"/>
     </row>
     <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
@@ -8763,15 +7785,15 @@
       <c r="B40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="73"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
     </row>
     <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="75"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="71"/>
     </row>
     <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
@@ -8791,15 +7813,15 @@
       <c r="B44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="82"/>
-      <c r="D44" s="83"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="85"/>
     </row>
     <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="74"/>
-      <c r="D45" s="75"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="71"/>
     </row>
     <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
@@ -8819,15 +7841,15 @@
       <c r="B48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="73"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="69"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="75"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="71"/>
     </row>
     <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
@@ -8847,8 +7869,8 @@
       <c r="B52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="73"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -8893,7 +7915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D58"/>
   <sheetViews>
@@ -8929,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" s="55"/>
     </row>
@@ -8938,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" s="57"/>
     </row>
@@ -8955,27 +7977,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" s="71"/>
+      <c r="C8" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="81"/>
     </row>
     <row r="9" spans="2:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="68" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="69"/>
+      <c r="C9" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -8993,10 +8015,10 @@
         <v>114</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -9006,11 +8028,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="37" t="s">
@@ -9025,13 +8047,13 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="D18" s="32" t="s">
         <v>217</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -9060,11 +8082,11 @@
       <c r="D24" s="23"/>
     </row>
     <row r="25" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="28" t="s">
@@ -9089,27 +8111,27 @@
     </row>
     <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="71"/>
     </row>
     <row r="32" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D32" s="67"/>
     </row>
@@ -9126,26 +8148,26 @@
       <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="73"/>
+      <c r="D34" s="69"/>
     </row>
     <row r="35" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="74" t="s">
-        <v>205</v>
-      </c>
-      <c r="D35" s="75"/>
+      <c r="C35" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="71"/>
     </row>
     <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D36" s="67"/>
     </row>
@@ -9160,26 +8182,26 @@
       <c r="B38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="73"/>
+      <c r="D38" s="69"/>
     </row>
     <row r="39" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="D39" s="75"/>
+      <c r="C39" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="71"/>
     </row>
     <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D40" s="67"/>
     </row>
@@ -9188,7 +8210,7 @@
         <v>70</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D41" s="67"/>
     </row>
@@ -9196,17 +8218,17 @@
       <c r="B42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="73"/>
+      <c r="D42" s="69"/>
     </row>
     <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="75"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="71"/>
     </row>
     <row r="44" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="3" t="s">
@@ -9226,15 +8248,15 @@
       <c r="B46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="73"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
     </row>
     <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="75"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="71"/>
     </row>
     <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
@@ -9254,15 +8276,15 @@
       <c r="B50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="82"/>
-      <c r="D50" s="83"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="85"/>
     </row>
     <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="75"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="71"/>
     </row>
     <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
@@ -9282,15 +8304,15 @@
       <c r="B54" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="73"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="69"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="74"/>
-      <c r="D55" s="75"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="71"/>
     </row>
     <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="3" t="s">
@@ -9310,8 +8332,8 @@
       <c r="B58" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="72"/>
-      <c r="D58" s="73"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -9360,11 +8382,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C40" sqref="C40:D40"/>
     </sheetView>
   </sheetViews>
@@ -9396,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5" s="55"/>
     </row>
@@ -9405,7 +8427,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" s="57"/>
     </row>
@@ -9422,27 +8444,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="71"/>
+      <c r="C8" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="81"/>
     </row>
     <row r="9" spans="2:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="69"/>
+      <c r="C9" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="79"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="31" t="s">
@@ -9462,11 +8484,11 @@
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="37" t="s">
@@ -9481,35 +8503,35 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="D19" s="32" t="s">
         <v>207</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
@@ -9543,11 +8565,11 @@
       <c r="D26" s="23"/>
     </row>
     <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="77"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="28" t="s">
@@ -9572,27 +8594,27 @@
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="77"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="75"/>
+      <c r="D33" s="71"/>
     </row>
     <row r="34" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" s="67"/>
     </row>
@@ -9609,26 +8631,26 @@
       <c r="B36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="73"/>
+      <c r="D36" s="69"/>
     </row>
     <row r="37" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="74" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" s="75"/>
+      <c r="C37" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="71"/>
     </row>
     <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D38" s="67"/>
     </row>
@@ -9643,15 +8665,15 @@
       <c r="B40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="73"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
     </row>
     <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="75"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="71"/>
     </row>
     <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
@@ -9671,15 +8693,15 @@
       <c r="B44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="73"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="69"/>
     </row>
     <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="74"/>
-      <c r="D45" s="75"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="71"/>
     </row>
     <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
@@ -9699,15 +8721,15 @@
       <c r="B48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="73"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="69"/>
     </row>
     <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="75"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="71"/>
     </row>
     <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
@@ -9727,15 +8749,15 @@
       <c r="B52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="82"/>
-      <c r="D52" s="83"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="85"/>
     </row>
     <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="75"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="71"/>
     </row>
     <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
@@ -9755,15 +8777,15 @@
       <c r="B56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="72"/>
-      <c r="D56" s="73"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="69"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="71"/>
     </row>
     <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
@@ -9783,8 +8805,8 @@
       <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="72"/>
-      <c r="D60" s="73"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -9831,4 +8853,564 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:D56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="1.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="55"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="57"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="57"/>
+    </row>
+    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="81"/>
+    </row>
+    <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="79"/>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+    </row>
+    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="3"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="10"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="4"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="33"/>
+    </row>
+    <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="77"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="4"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="D35" s="77"/>
+    </row>
+    <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="71"/>
+    </row>
+    <row r="37" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="67"/>
+    </row>
+    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+    </row>
+    <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="69"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="71"/>
+    </row>
+    <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="67"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
+    </row>
+    <row r="43" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="69"/>
+    </row>
+    <row r="44" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="71"/>
+    </row>
+    <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="67"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
+    </row>
+    <row r="47" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="69"/>
+    </row>
+    <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="71"/>
+    </row>
+    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="67"/>
+    </row>
+    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="67"/>
+    </row>
+    <row r="51" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="69"/>
+    </row>
+    <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="71"/>
+    </row>
+    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" s="67"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="67"/>
+    </row>
+    <row r="55" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="69"/>
+    </row>
+    <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="70"/>
+      <c r="D56" s="71"/>
+    </row>
+    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="66"/>
+      <c r="D57" s="67"/>
+    </row>
+    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
+    </row>
+    <row r="59" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="3"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="69"/>
+    </row>
+    <row r="60" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="84"/>
+      <c r="D60" s="85"/>
+    </row>
+    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="70"/>
+      <c r="D61" s="71"/>
+    </row>
+    <row r="62" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="66"/>
+      <c r="D63" s="67"/>
+    </row>
+    <row r="64" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="68"/>
+      <c r="D64" s="69"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="70"/>
+      <c r="D65" s="71"/>
+    </row>
+    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="66"/>
+      <c r="D66" s="67"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="66"/>
+      <c r="D67" s="67"/>
+    </row>
+    <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="68"/>
+      <c r="D68" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/仕様書/仕様書.xlsx
+++ b/仕様書/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="7890" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="7890" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Unit" sheetId="11" r:id="rId12"/>
     <sheet name="mapsSelect" sheetId="16" r:id="rId13"/>
     <sheet name="map" sheetId="14" r:id="rId14"/>
+    <sheet name="mass" sheetId="23" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="309">
   <si>
     <t>オブジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1163,9 +1164,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>terrain</t>
-  </si>
-  <si>
     <t>地形用</t>
     <rPh sb="0" eb="2">
       <t>チケイ</t>
@@ -2268,6 +2266,180 @@
   </si>
   <si>
     <t>private string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一マスの情報を持つクラス</t>
+    <rPh sb="0" eb="1">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクセル読み出し</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private vector&lt;vector&lt;mass*&gt;&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>landType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像の種類判別などを行う</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンベツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動するときに消費するコスト</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moveCost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evasion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避補正</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御補正</t>
+    <rPh sb="0" eb="2">
+      <t>ボウギョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mass()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンストラクタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期化関数</t>
+    <rPh sb="0" eb="3">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像種類,移動コスト,回避補正,速度補正</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int Init(int,int,int,int)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mass GetMass()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスの情報の取得</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>massクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>terrain</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3135,6 +3307,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3152,24 +3342,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3868,7 +4040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C50" sqref="C47:D50"/>
     </sheetView>
   </sheetViews>
@@ -3900,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D5" s="55"/>
     </row>
@@ -3909,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" s="57"/>
     </row>
@@ -3926,27 +4098,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>267</v>
-      </c>
-      <c r="D9" s="79"/>
+      <c r="C9" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -3971,11 +4143,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
@@ -4014,11 +4186,11 @@
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="28" t="s">
@@ -4033,24 +4205,24 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>268</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
@@ -4060,11 +4232,11 @@
     </row>
     <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
@@ -4139,7 +4311,7 @@
         <v>69</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D39" s="71"/>
     </row>
@@ -4148,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D40" s="67"/>
     </row>
@@ -4157,7 +4329,7 @@
         <v>68</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D41" s="67"/>
     </row>
@@ -4175,7 +4347,7 @@
         <v>69</v>
       </c>
       <c r="C43" s="70" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D43" s="71"/>
     </row>
@@ -4184,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D44" s="67"/>
     </row>
@@ -4193,7 +4365,7 @@
         <v>68</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D45" s="67"/>
     </row>
@@ -4236,6 +4408,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
@@ -4248,24 +4438,6 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4309,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" s="55"/>
     </row>
@@ -4318,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" s="57"/>
     </row>
@@ -4335,27 +4507,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="79"/>
+      <c r="C9" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -4380,11 +4552,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
@@ -4423,11 +4595,11 @@
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="28" t="s">
@@ -4442,24 +4614,24 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>233</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>255</v>
-      </c>
       <c r="D27" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
@@ -4469,11 +4641,11 @@
     </row>
     <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
     </row>
     <row r="31" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
@@ -4582,7 +4754,7 @@
         <v>69</v>
       </c>
       <c r="C43" s="70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D43" s="71"/>
     </row>
@@ -4591,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D44" s="67"/>
     </row>
@@ -4600,7 +4772,7 @@
         <v>70</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D45" s="67"/>
     </row>
@@ -4609,7 +4781,7 @@
         <v>67</v>
       </c>
       <c r="C46" s="68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D46" s="69"/>
     </row>
@@ -4618,7 +4790,7 @@
         <v>69</v>
       </c>
       <c r="C47" s="70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D47" s="71"/>
     </row>
@@ -4627,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D48" s="67"/>
     </row>
@@ -4636,7 +4808,7 @@
         <v>68</v>
       </c>
       <c r="C49" s="66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D49" s="67"/>
     </row>
@@ -4645,7 +4817,7 @@
         <v>67</v>
       </c>
       <c r="C50" s="68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D50" s="69"/>
     </row>
@@ -4679,16 +4851,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
@@ -4701,18 +4875,16 @@
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4724,8 +4896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4782,27 +4954,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="79"/>
+      <c r="C9" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -4833,11 +5005,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
@@ -4951,35 +5123,35 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="D27" s="34" t="s">
         <v>239</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="34" t="s">
         <v>170</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>245</v>
-      </c>
       <c r="D29" s="41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
@@ -4987,10 +5159,10 @@
         <v>81</v>
       </c>
       <c r="C30" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="34" t="s">
         <v>246</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -5010,11 +5182,11 @@
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="28" t="s">
@@ -5045,11 +5217,11 @@
     </row>
     <row r="38" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="77"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
     </row>
     <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="2" t="s">
@@ -5108,7 +5280,7 @@
         <v>68</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D46" s="67"/>
     </row>
@@ -5144,7 +5316,7 @@
         <v>68</v>
       </c>
       <c r="C50" s="66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D50" s="67"/>
     </row>
@@ -5162,7 +5334,7 @@
         <v>69</v>
       </c>
       <c r="C52" s="70" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D52" s="71"/>
     </row>
@@ -5171,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D53" s="67"/>
     </row>
@@ -5180,7 +5352,7 @@
         <v>70</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D54" s="67"/>
     </row>
@@ -5189,7 +5361,7 @@
         <v>67</v>
       </c>
       <c r="C55" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D55" s="69"/>
     </row>
@@ -5198,7 +5370,7 @@
         <v>69</v>
       </c>
       <c r="C56" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D56" s="71"/>
     </row>
@@ -5207,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D57" s="67"/>
     </row>
@@ -5216,7 +5388,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D58" s="67"/>
     </row>
@@ -5320,6 +5492,41 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C64:D64"/>
@@ -5328,41 +5535,6 @@
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5374,8 +5546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47:F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5406,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="55"/>
     </row>
@@ -5415,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="57"/>
     </row>
@@ -5432,27 +5604,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="79"/>
+      <c r="C9" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -5477,11 +5649,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="37" t="s">
@@ -5496,46 +5668,46 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C18" s="38" t="s">
         <v>132</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="D19" s="32" t="s">
         <v>187</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C21" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>192</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
@@ -5579,11 +5751,11 @@
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="28" t="s">
@@ -5598,7 +5770,7 @@
     </row>
     <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="25" t="s">
         <v>132</v>
@@ -5612,11 +5784,11 @@
     </row>
     <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="77"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
@@ -5632,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D38" s="67"/>
     </row>
@@ -5657,7 +5829,7 @@
         <v>69</v>
       </c>
       <c r="C41" s="70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D41" s="71"/>
     </row>
@@ -5666,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D42" s="67"/>
     </row>
@@ -5682,7 +5854,7 @@
         <v>67</v>
       </c>
       <c r="C44" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D44" s="69"/>
     </row>
@@ -5691,7 +5863,7 @@
         <v>69</v>
       </c>
       <c r="C45" s="70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D45" s="71"/>
     </row>
@@ -5700,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" s="67"/>
     </row>
@@ -5806,16 +5978,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
@@ -5828,18 +6002,16 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5852,7 +6024,7 @@
   <dimension ref="B1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5909,27 +6081,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="79"/>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -5947,10 +6119,10 @@
         <v>141</v>
       </c>
       <c r="C13" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>142</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -5960,11 +6132,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="37" t="s">
@@ -5979,7 +6151,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C18" s="38" t="s">
         <v>136</v>
@@ -5990,7 +6162,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="28" t="s">
-        <v>139</v>
+        <v>288</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>132</v>
@@ -6001,68 +6173,68 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="D20" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="D21" s="32" t="s">
         <v>148</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>181</v>
-      </c>
       <c r="D22" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="D23" s="32" t="s">
         <v>183</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="32" t="s">
         <v>195</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
@@ -6086,11 +6258,11 @@
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="28" t="s">
@@ -6115,18 +6287,18 @@
     </row>
     <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="77"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
     </row>
     <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D37" s="71"/>
     </row>
@@ -6135,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" s="67"/>
     </row>
@@ -6144,7 +6316,7 @@
         <v>68</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D39" s="67"/>
     </row>
@@ -6171,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D42" s="67"/>
     </row>
@@ -6180,7 +6352,7 @@
         <v>68</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D43" s="67"/>
     </row>
@@ -6198,7 +6370,7 @@
         <v>69</v>
       </c>
       <c r="C45" s="70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D45" s="71"/>
     </row>
@@ -6207,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D46" s="67"/>
     </row>
@@ -6216,7 +6388,7 @@
         <v>68</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D47" s="67"/>
     </row>
@@ -6371,30 +6543,12 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
@@ -6407,12 +6561,534 @@
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="1.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+    </row>
+    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="55"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="57"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="57"/>
+    </row>
+    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="77"/>
+    </row>
+    <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="75"/>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="4"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="4"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="33"/>
+    </row>
+    <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="4"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
+    </row>
+    <row r="30" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="71"/>
+    </row>
+    <row r="31" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="67"/>
+    </row>
+    <row r="32" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
+    </row>
+    <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" s="71"/>
+    </row>
+    <row r="35" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="D35" s="67"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="D36" s="67"/>
+    </row>
+    <row r="37" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="69"/>
+    </row>
+    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38" s="71"/>
+    </row>
+    <row r="39" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="D39" s="67"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="67"/>
+    </row>
+    <row r="41" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="D41" s="69"/>
+    </row>
+    <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
+    </row>
+    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="66"/>
+      <c r="D43" s="67"/>
+    </row>
+    <row r="44" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="66"/>
+      <c r="D44" s="67"/>
+    </row>
+    <row r="45" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="68"/>
+      <c r="D45" s="69"/>
+    </row>
+    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
+    </row>
+    <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="66"/>
+      <c r="D47" s="67"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+    </row>
+    <row r="49" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="68"/>
+      <c r="D49" s="69"/>
+    </row>
+    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="70"/>
+      <c r="D50" s="71"/>
+    </row>
+    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+    </row>
+    <row r="52" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="84"/>
+      <c r="D53" s="85"/>
+    </row>
+    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="70"/>
+      <c r="D54" s="71"/>
+    </row>
+    <row r="55" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="66"/>
+      <c r="D55" s="67"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="66"/>
+      <c r="D56" s="67"/>
+    </row>
+    <row r="57" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="68"/>
+      <c r="D57" s="69"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="70"/>
+      <c r="D58" s="71"/>
+    </row>
+    <row r="59" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="66"/>
+      <c r="D59" s="67"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="66"/>
+      <c r="D60" s="67"/>
+    </row>
+    <row r="61" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="68"/>
+      <c r="D61" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6954,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="55"/>
     </row>
@@ -6963,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="57"/>
     </row>
@@ -6980,27 +7656,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="79"/>
+      <c r="C9" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -7025,11 +7701,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="37" t="s">
@@ -7066,35 +7742,35 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="D20" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="D21" s="32" t="s">
         <v>148</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="D22" s="32" t="s">
         <v>157</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -7133,11 +7809,11 @@
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="28" t="s">
@@ -7152,24 +7828,24 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="D33" s="29" t="s">
         <v>276</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>272</v>
-      </c>
       <c r="D34" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
@@ -7179,18 +7855,18 @@
     </row>
     <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="37" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="77"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
     </row>
     <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" s="71"/>
     </row>
@@ -7199,7 +7875,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D39" s="67"/>
     </row>
@@ -7208,7 +7884,7 @@
         <v>68</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40" s="67"/>
     </row>
@@ -7235,7 +7911,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D43" s="67"/>
     </row>
@@ -7244,7 +7920,7 @@
         <v>68</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D44" s="67"/>
     </row>
@@ -7262,7 +7938,7 @@
         <v>69</v>
       </c>
       <c r="C46" s="70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D46" s="71"/>
     </row>
@@ -7271,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D47" s="67"/>
     </row>
@@ -7280,7 +7956,7 @@
         <v>68</v>
       </c>
       <c r="C48" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D48" s="67"/>
     </row>
@@ -7298,7 +7974,7 @@
         <v>69</v>
       </c>
       <c r="C50" s="70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D50" s="71"/>
     </row>
@@ -7306,17 +7982,17 @@
       <c r="B51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" s="83"/>
+      <c r="C51" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="73"/>
     </row>
     <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="67"/>
     </row>
@@ -7332,7 +8008,7 @@
         <v>69</v>
       </c>
       <c r="C54" s="70" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D54" s="71"/>
     </row>
@@ -7341,7 +8017,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D55" s="67"/>
     </row>
@@ -7350,14 +8026,14 @@
         <v>68</v>
       </c>
       <c r="C56" s="66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D56" s="67"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57" s="10"/>
       <c r="C57" s="66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D57" s="67"/>
     </row>
@@ -7456,25 +8132,14 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B31:D31"/>
@@ -7491,14 +8156,25 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7542,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5" s="55"/>
     </row>
@@ -7551,7 +8227,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D6" s="57"/>
     </row>
@@ -7568,27 +8244,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" spans="2:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="79"/>
+      <c r="C9" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="31" t="s">
@@ -7608,11 +8284,11 @@
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="37" t="s">
@@ -7627,10 +8303,10 @@
     </row>
     <row r="17" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>236</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>237</v>
       </c>
       <c r="D17" s="32"/>
     </row>
@@ -7655,11 +8331,11 @@
       <c r="D22" s="23"/>
     </row>
     <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="77"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="28" t="s">
@@ -7684,18 +8360,18 @@
     </row>
     <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
     </row>
     <row r="29" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="70" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" s="71"/>
     </row>
@@ -7704,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D30" s="67"/>
     </row>
@@ -7729,7 +8405,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D33" s="71"/>
     </row>
@@ -7738,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D34" s="67"/>
     </row>
@@ -7747,7 +8423,7 @@
         <v>70</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D35" s="67"/>
     </row>
@@ -7756,7 +8432,7 @@
         <v>67</v>
       </c>
       <c r="C36" s="68" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D36" s="69"/>
     </row>
@@ -7874,20 +8550,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
@@ -7900,14 +8570,20 @@
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7951,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="55"/>
     </row>
@@ -7960,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D6" s="57"/>
     </row>
@@ -7977,27 +8653,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" s="81"/>
+      <c r="C8" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" spans="2:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="79"/>
+      <c r="C9" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -8015,10 +8691,10 @@
         <v>114</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -8028,11 +8704,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="37" t="s">
@@ -8047,13 +8723,13 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="D18" s="32" t="s">
         <v>216</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -8082,11 +8758,11 @@
       <c r="D24" s="23"/>
     </row>
     <row r="25" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="28" t="s">
@@ -8111,11 +8787,11 @@
     </row>
     <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
@@ -8131,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D32" s="67"/>
     </row>
@@ -8140,7 +8816,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D33" s="67"/>
     </row>
@@ -8158,7 +8834,7 @@
         <v>69</v>
       </c>
       <c r="C35" s="70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D35" s="71"/>
     </row>
@@ -8167,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D36" s="67"/>
     </row>
@@ -8192,7 +8868,7 @@
         <v>69</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D39" s="71"/>
     </row>
@@ -8201,7 +8877,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D40" s="67"/>
     </row>
@@ -8210,7 +8886,7 @@
         <v>70</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D41" s="67"/>
     </row>
@@ -8337,20 +9013,18 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
@@ -8363,18 +9037,20 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8418,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="55"/>
     </row>
@@ -8427,7 +9103,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="57"/>
     </row>
@@ -8444,27 +9120,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="81"/>
+      <c r="C8" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" spans="2:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>209</v>
-      </c>
-      <c r="D9" s="79"/>
+      <c r="C9" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="31" t="s">
@@ -8484,11 +9160,11 @@
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="37" t="s">
@@ -8503,35 +9179,35 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="D19" s="32" t="s">
         <v>206</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
@@ -8565,11 +9241,11 @@
       <c r="D26" s="23"/>
     </row>
     <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="77"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="28" t="s">
@@ -8594,11 +9270,11 @@
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
@@ -8614,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D34" s="67"/>
     </row>
@@ -8623,7 +9299,7 @@
         <v>68</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D35" s="67"/>
     </row>
@@ -8641,7 +9317,7 @@
         <v>69</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="71"/>
     </row>
@@ -8650,7 +9326,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38" s="67"/>
     </row>
@@ -8810,20 +9486,18 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -8836,18 +9510,20 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8917,27 +9593,27 @@
       <c r="B8" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="77"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="79"/>
+      <c r="D9" s="75"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -8962,11 +9638,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
@@ -9065,11 +9741,11 @@
       <c r="D29" s="23"/>
     </row>
     <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" s="28" t="s">
@@ -9094,11 +9770,11 @@
     </row>
     <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="77"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
     </row>
     <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="2" t="s">
@@ -9216,7 +9892,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D49" s="67"/>
     </row>
@@ -9225,7 +9901,7 @@
         <v>70</v>
       </c>
       <c r="C50" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="67"/>
     </row>
@@ -9234,7 +9910,7 @@
         <v>67</v>
       </c>
       <c r="C51" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D51" s="69"/>
     </row>
@@ -9243,7 +9919,7 @@
         <v>69</v>
       </c>
       <c r="C52" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D52" s="71"/>
     </row>
@@ -9252,7 +9928,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D53" s="67"/>
     </row>
@@ -9261,7 +9937,7 @@
         <v>68</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D54" s="67"/>
     </row>
@@ -9365,6 +10041,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="C5:D5"/>
@@ -9377,37 +10084,6 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/仕様書/仕様書.xlsx
+++ b/仕様書/仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\circle\resource\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="7890" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="7890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -17,15 +17,14 @@
     <sheet name="詳細" sheetId="1" r:id="rId3"/>
     <sheet name="詳細 (2)" sheetId="10" r:id="rId4"/>
     <sheet name="GameMgr" sheetId="15" r:id="rId5"/>
-    <sheet name="save lord" sheetId="19" r:id="rId6"/>
-    <sheet name="Button Mgr" sheetId="18" r:id="rId7"/>
-    <sheet name="BaseButton" sheetId="17" r:id="rId8"/>
-    <sheet name="fairy" sheetId="13" r:id="rId9"/>
-    <sheet name="Creater" sheetId="22" r:id="rId10"/>
+    <sheet name="mapsSelect" sheetId="16" r:id="rId6"/>
+    <sheet name="save lord" sheetId="19" r:id="rId7"/>
+    <sheet name="Button Mgr" sheetId="18" r:id="rId8"/>
+    <sheet name="BaseButton" sheetId="17" r:id="rId9"/>
+    <sheet name="fairy" sheetId="13" r:id="rId10"/>
     <sheet name="CharaMgr" sheetId="20" r:id="rId11"/>
     <sheet name="Unit" sheetId="11" r:id="rId12"/>
-    <sheet name="mapsSelect" sheetId="16" r:id="rId13"/>
-    <sheet name="map" sheetId="14" r:id="rId14"/>
+    <sheet name="map" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="240">
   <si>
     <t>オブジェクト名</t>
     <rPh sb="6" eb="7">
@@ -706,6 +705,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>敵も味方も全てこれを持つ</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>protected int</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -869,6 +884,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>exp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験値　100でレベルアップ0へ</t>
+    <rPh sb="0" eb="3">
+      <t>ケイケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>int LevelUp()</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1245,6 +1271,10 @@
     <rPh sb="0" eb="1">
       <t>ナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int MoveRange(int move)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1879,6 +1909,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>vector&lt;Unit&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1893,381 +1927,6 @@
     <rPh sb="9" eb="11">
       <t>カクホ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BaseTusk</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>private int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nowpos</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>portected int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>faction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵か味方か(第三陣営も可)</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミカタ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ダイサン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int LevelUp()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レベルアップに必要な経験値計算</t>
-    <rPh sb="7" eb="9">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ケイケンチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無し</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>protected int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nextExp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在経験値</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ケイケンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次のレベル用に到達するまでの値
-最初は　100でレベルアップ 0へ</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウタツ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レベルアップ 1 それ以外0</t>
-    <rPh sb="11" eb="13">
-      <t>イガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int StatusUp()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>能力を引き上げる</t>
-    <rPh sb="0" eb="2">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本無し</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unit&amp;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>vector&lt;Unit&gt;</t>
-  </si>
-  <si>
-    <t>enemy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>chara</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャラ情報の取得</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vector&lt;Unit&gt;&amp;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無し</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vector&lt;Unit&gt;&amp;GetEnemy()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵情報の取得</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int CreateChara(Unit&amp;)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int CreateEnemy(Unit&amp;)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵を情報を受け取って生成する</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vector&lt;Unit&gt;&amp;GetChara()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unitの生成を行う</t>
-    <rPh sb="5" eb="7">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵と味方を生成する</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミカタ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unit*</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>味方ユニット情報を一時確保</t>
-    <rPh sb="0" eb="2">
-      <t>ミカタ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カクホ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵ユニット情報を一時確保</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>damageCul</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cul</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵ユニット情報を確保する</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Creater</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Creater</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>creater</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unit生成用のクラス</t>
-    <rPh sb="4" eb="7">
-      <t>セイセイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計算用のクラス</t>
-    <rPh sb="0" eb="2">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵も味方も全てこれを継承して、さらに各クラスを作っていく。</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミカタ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケイショウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int MoveRange(int move,map _map)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップの地形情報</t>
-    <rPh sb="4" eb="6">
-      <t>チケイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int FIleRead(const string _path)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル内容を読み込む</t>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイルパス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>private string</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2918,7 +2577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3042,8 +2701,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3117,22 +2779,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3163,18 +2837,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3655,14 +3317,14 @@
   <sheetData>
     <row r="1" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="44"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
@@ -3686,10 +3348,10 @@
     </row>
     <row r="7" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="48"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
@@ -3866,10 +3528,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D50"/>
+  <dimension ref="B1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C50" sqref="C47:D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3883,70 +3545,70 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" s="55"/>
+      <c r="C5" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="57"/>
+      <c r="C6" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="81"/>
+        <v>130</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="86"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>267</v>
-      </c>
-      <c r="D9" s="79"/>
+      <c r="C9" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="84"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -3971,11 +3633,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
@@ -3989,254 +3651,408 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="28"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="10"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="10"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="34"/>
-    </row>
-    <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="4"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="33"/>
-    </row>
-    <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="75" t="s">
+      <c r="B20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="3"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="10"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="4"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="33"/>
+    </row>
+    <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="28" t="s">
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-    </row>
-    <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="75" t="s">
+    <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="4"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="2" t="s">
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+    </row>
+    <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C36" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="70"/>
+    </row>
+    <row r="37" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="72"/>
+    </row>
+    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="72"/>
+    </row>
+    <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="68"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="70"/>
+    </row>
+    <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="71"/>
-    </row>
-    <row r="32" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="3" t="s">
+      <c r="D41" s="72"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="71"/>
+      <c r="D42" s="72"/>
+    </row>
+    <row r="43" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="68"/>
+    </row>
+    <row r="44" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="70"/>
+    </row>
+    <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="67"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="3" t="s">
+      <c r="C45" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="72"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B46" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-    </row>
-    <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="4" t="s">
+      <c r="C46" s="71"/>
+      <c r="D46" s="72"/>
+    </row>
+    <row r="47" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="69"/>
-    </row>
-    <row r="35" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="2" t="s">
+      <c r="C47" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="68"/>
+    </row>
+    <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="71"/>
-    </row>
-    <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="3" t="s">
+      <c r="C48" s="69"/>
+      <c r="D48" s="70"/>
+    </row>
+    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="67"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="3" t="s">
+      <c r="C49" s="71"/>
+      <c r="D49" s="72"/>
+    </row>
+    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="71"/>
+      <c r="D50" s="72"/>
+    </row>
+    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="3"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="72"/>
+    </row>
+    <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="3"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="72"/>
+    </row>
+    <row r="53" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
+    </row>
+    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="69"/>
+      <c r="D54" s="70"/>
+    </row>
+    <row r="55" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="71"/>
+      <c r="D55" s="72"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
-    </row>
-    <row r="38" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="4" t="s">
+      <c r="C56" s="71"/>
+      <c r="D56" s="72"/>
+    </row>
+    <row r="57" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="69"/>
-    </row>
-    <row r="39" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="2" t="s">
+      <c r="C57" s="67"/>
+      <c r="D57" s="68"/>
+    </row>
+    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="70" t="s">
-        <v>262</v>
-      </c>
-      <c r="D39" s="71"/>
-    </row>
-    <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="3" t="s">
+      <c r="C58" s="69"/>
+      <c r="D58" s="70"/>
+    </row>
+    <row r="59" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="D40" s="67"/>
-    </row>
-    <row r="41" spans="2:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="3" t="s">
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+    </row>
+    <row r="60" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="D41" s="67"/>
-    </row>
-    <row r="42" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="4" t="s">
+      <c r="C60" s="71"/>
+      <c r="D60" s="72"/>
+    </row>
+    <row r="61" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="3"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+    </row>
+    <row r="62" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="69"/>
-    </row>
-    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="2" t="s">
+      <c r="C62" s="73"/>
+      <c r="D62" s="74"/>
+    </row>
+    <row r="63" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="70" t="s">
-        <v>263</v>
-      </c>
-      <c r="D43" s="71"/>
-    </row>
-    <row r="44" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="3" t="s">
+      <c r="C63" s="69"/>
+      <c r="D63" s="70"/>
+    </row>
+    <row r="64" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="D44" s="67"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45" s="3" t="s">
+      <c r="C64" s="71"/>
+      <c r="D64" s="72"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B65" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="D45" s="67"/>
-    </row>
-    <row r="46" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="4" t="s">
+      <c r="C65" s="71"/>
+      <c r="D65" s="72"/>
+    </row>
+    <row r="66" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="69"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="2" t="s">
+      <c r="C66" s="67"/>
+      <c r="D66" s="68"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B67" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="71"/>
-    </row>
-    <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="3" t="s">
+      <c r="C67" s="69"/>
+      <c r="D67" s="70"/>
+    </row>
+    <row r="68" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="67"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B49" s="3" t="s">
+      <c r="C68" s="71"/>
+      <c r="D68" s="72"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="67"/>
-    </row>
-    <row r="50" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="4" t="s">
+      <c r="C69" s="71"/>
+      <c r="D69" s="72"/>
+    </row>
+    <row r="70" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="45">
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C61:D61"/>
     <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
@@ -4247,25 +4063,18 @@
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4275,9 +4084,516 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D54"/>
+  <dimension ref="B1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="1.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+    </row>
+    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="56"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="58"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="58"/>
+    </row>
+    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="86"/>
+    </row>
+    <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="84"/>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+    </row>
+    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="28"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="10"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="10"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="4"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="33"/>
+    </row>
+    <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="4"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="33"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+    </row>
+    <row r="31" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="70"/>
+    </row>
+    <row r="32" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="72"/>
+    </row>
+    <row r="33" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
+    </row>
+    <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="68"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="70"/>
+    </row>
+    <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="72"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
+    </row>
+    <row r="38" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="68"/>
+    </row>
+    <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="70"/>
+    </row>
+    <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="72"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="71"/>
+      <c r="D41" s="72"/>
+    </row>
+    <row r="42" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="68"/>
+    </row>
+    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="70"/>
+    </row>
+    <row r="44" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+    </row>
+    <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="71"/>
+      <c r="D45" s="72"/>
+    </row>
+    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="3"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="72"/>
+    </row>
+    <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="3"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="72"/>
+    </row>
+    <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+    </row>
+    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="69"/>
+      <c r="D49" s="70"/>
+    </row>
+    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="71"/>
+      <c r="D50" s="72"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="71"/>
+      <c r="D51" s="72"/>
+    </row>
+    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
+    </row>
+    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="69"/>
+      <c r="D53" s="70"/>
+    </row>
+    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="71"/>
+      <c r="D54" s="72"/>
+    </row>
+    <row r="55" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="71"/>
+      <c r="D55" s="72"/>
+    </row>
+    <row r="56" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="3"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
+    </row>
+    <row r="57" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
+    </row>
+    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="69"/>
+      <c r="D58" s="70"/>
+    </row>
+    <row r="59" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="71"/>
+      <c r="D60" s="72"/>
+    </row>
+    <row r="61" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="69"/>
+      <c r="D62" s="70"/>
+    </row>
+    <row r="63" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="71"/>
+      <c r="D63" s="72"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="71"/>
+      <c r="D64" s="72"/>
+    </row>
+    <row r="65" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="67"/>
+      <c r="D65" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -4292,70 +4608,70 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="55"/>
+      <c r="C5" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="57"/>
+      <c r="C6" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="81"/>
+        <v>130</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="86"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="79"/>
+      <c r="C9" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="84"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -4369,9 +4685,15 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="35"/>
+      <c r="B13" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="4"/>
@@ -4380,11 +4702,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
@@ -4398,310 +4720,443 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="28"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="10"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="34"/>
+      <c r="B19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="10"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="34"/>
-    </row>
-    <row r="21" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="4"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="33"/>
-    </row>
-    <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="75" t="s">
+      <c r="B20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="28" t="s">
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-    </row>
-    <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-    </row>
-    <row r="31" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="71"/>
-    </row>
-    <row r="32" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="67"/>
-    </row>
-    <row r="33" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
     </row>
     <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="37" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="81"/>
+      <c r="D37" s="82"/>
+    </row>
+    <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="70"/>
+    </row>
+    <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="72"/>
+    </row>
+    <row r="40" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="71"/>
+      <c r="D40" s="72"/>
+    </row>
+    <row r="41" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="69"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="2" t="s">
+      <c r="C41" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="68"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C42" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="70"/>
+    </row>
+    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="71"/>
-    </row>
-    <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="3" t="s">
+      <c r="D43" s="72"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+    </row>
+    <row r="45" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="68"/>
+    </row>
+    <row r="46" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="70"/>
+    </row>
+    <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="67"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="3" t="s">
+      <c r="C47" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="72"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
-    </row>
-    <row r="38" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="4" t="s">
+      <c r="C48" s="71"/>
+      <c r="D48" s="72"/>
+    </row>
+    <row r="49" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="69"/>
-    </row>
-    <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="2" t="s">
+      <c r="C49" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="68"/>
+    </row>
+    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="71"/>
-    </row>
-    <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="3" t="s">
+      <c r="C50" s="69"/>
+      <c r="D50" s="70"/>
+    </row>
+    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="67"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-    </row>
-    <row r="42" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="69"/>
-    </row>
-    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="70" t="s">
-        <v>265</v>
-      </c>
-      <c r="D43" s="71"/>
-    </row>
-    <row r="44" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="D44" s="67"/>
-    </row>
-    <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="D45" s="67"/>
-    </row>
-    <row r="46" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="D46" s="69"/>
-    </row>
-    <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="70" t="s">
-        <v>260</v>
-      </c>
-      <c r="D47" s="71"/>
-    </row>
-    <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="66" t="s">
-        <v>261</v>
-      </c>
-      <c r="D48" s="67"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="D49" s="67"/>
-    </row>
-    <row r="50" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="D50" s="69"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B51" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="71"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="72"/>
     </row>
     <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="71"/>
+      <c r="D52" s="72"/>
+    </row>
+    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="3"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="72"/>
+    </row>
+    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="3"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="72"/>
+    </row>
+    <row r="55" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
+    </row>
+    <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="69"/>
+      <c r="D56" s="70"/>
+    </row>
+    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="66"/>
-      <c r="D52" s="67"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B53" s="3" t="s">
+      <c r="C57" s="71"/>
+      <c r="D57" s="72"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B58" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-    </row>
-    <row r="54" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="4" t="s">
+      <c r="C58" s="71"/>
+      <c r="D58" s="72"/>
+    </row>
+    <row r="59" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="69"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="68"/>
+    </row>
+    <row r="60" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="69"/>
+      <c r="D60" s="70"/>
+    </row>
+    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="71"/>
+      <c r="D61" s="72"/>
+    </row>
+    <row r="62" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="71"/>
+      <c r="D62" s="72"/>
+    </row>
+    <row r="63" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="3"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="68"/>
+    </row>
+    <row r="64" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="73"/>
+      <c r="D64" s="74"/>
+    </row>
+    <row r="65" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="69"/>
+      <c r="D65" s="70"/>
+    </row>
+    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="71"/>
+      <c r="D66" s="72"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="71"/>
+      <c r="D67" s="72"/>
+    </row>
+    <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="67"/>
+      <c r="D68" s="68"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="69"/>
+      <c r="D69" s="70"/>
+    </row>
+    <row r="70" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="71"/>
+      <c r="D70" s="72"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B71" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="71"/>
+      <c r="D71" s="72"/>
+    </row>
+    <row r="72" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="67"/>
+      <c r="D72" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C32:D32"/>
+  <mergeCells count="45">
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
@@ -4710,9 +5165,43 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4720,12 +5209,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D72"/>
+  <dimension ref="B1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4739,70 +5228,70 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="55"/>
+      <c r="C5" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="57"/>
+      <c r="C6" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="81"/>
+        <v>130</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="86"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="79"/>
+      <c r="C9" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="84"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -4816,31 +5305,31 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>115</v>
+      <c r="B13" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="4"/>
-      <c r="C14" s="25"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -4851,1550 +5340,405 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>116</v>
+      <c r="B18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>139</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
-        <v>81</v>
+      <c r="B19" s="28" t="s">
+        <v>142</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="3" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="3" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="32" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="10"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="4"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="33"/>
+    </row>
+    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="4"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="33"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+    </row>
+    <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" s="70"/>
+    </row>
+    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="72"/>
+    </row>
+    <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="72"/>
+    </row>
+    <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="68"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="70"/>
+    </row>
+    <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" s="72"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="72"/>
+    </row>
+    <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="68"/>
+    </row>
+    <row r="45" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="70"/>
+    </row>
+    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="72"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="72"/>
+    </row>
+    <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="67" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B29" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-    </row>
-    <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-    </row>
-    <row r="38" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="77"/>
-    </row>
-    <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="2" t="s">
+      <c r="D48" s="68"/>
+    </row>
+    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="71"/>
-    </row>
-    <row r="41" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="3" t="s">
+      <c r="C49" s="69"/>
+      <c r="D49" s="70"/>
+    </row>
+    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="67"/>
-    </row>
-    <row r="42" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
-    </row>
-    <row r="43" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="4" t="s">
+      <c r="C50" s="71"/>
+      <c r="D50" s="72"/>
+    </row>
+    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="71"/>
+      <c r="D51" s="72"/>
+    </row>
+    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="69"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="2" t="s">
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
+    </row>
+    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="71"/>
-    </row>
-    <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="67"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="D46" s="67"/>
-    </row>
-    <row r="47" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="69"/>
-    </row>
-    <row r="48" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="71"/>
-    </row>
-    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="67"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B50" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="66" t="s">
-        <v>252</v>
-      </c>
-      <c r="D50" s="67"/>
-    </row>
-    <row r="51" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="69"/>
-    </row>
-    <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="D52" s="71"/>
-    </row>
-    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="66" t="s">
-        <v>242</v>
-      </c>
-      <c r="D53" s="67"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="70"/>
     </row>
     <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="D54" s="67"/>
-    </row>
-    <row r="55" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="71"/>
+      <c r="D54" s="72"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="71"/>
+      <c r="D55" s="72"/>
+    </row>
+    <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="D55" s="69"/>
-    </row>
-    <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
+    </row>
+    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="70" t="s">
-        <v>250</v>
-      </c>
-      <c r="D56" s="71"/>
-    </row>
-    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="3" t="s">
+      <c r="C57" s="69"/>
+      <c r="D57" s="70"/>
+    </row>
+    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="66" t="s">
-        <v>251</v>
-      </c>
-      <c r="D57" s="67"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="71"/>
+      <c r="D58" s="72"/>
+    </row>
+    <row r="59" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="D58" s="67"/>
-    </row>
-    <row r="59" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+    </row>
+    <row r="60" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" s="69"/>
-    </row>
-    <row r="60" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="73"/>
+      <c r="D60" s="74"/>
+    </row>
+    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="70"/>
-      <c r="D60" s="71"/>
-    </row>
-    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="66"/>
-      <c r="D61" s="67"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="70"/>
     </row>
     <row r="62" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="71"/>
+      <c r="D62" s="72"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B63" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="66"/>
-      <c r="D62" s="67"/>
-    </row>
-    <row r="63" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="3"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="69"/>
-    </row>
-    <row r="64" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C63" s="71"/>
+      <c r="D63" s="72"/>
+    </row>
+    <row r="64" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="84"/>
-      <c r="D64" s="85"/>
-    </row>
-    <row r="65" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C64" s="67"/>
+      <c r="D64" s="68"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="71"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="70"/>
     </row>
     <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="72"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="66"/>
-      <c r="D67" s="67"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="72"/>
     </row>
     <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="68"/>
-      <c r="D68" s="69"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B69" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="71"/>
-    </row>
-    <row r="70" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="66"/>
-      <c r="D70" s="67"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B71" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" s="66"/>
-      <c r="D71" s="67"/>
-    </row>
-    <row r="72" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="68"/>
-      <c r="D72" s="69"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
+  <mergeCells count="42">
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D60"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47:F48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="43.875" customWidth="1"/>
-    <col min="5" max="5" width="1.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-    </row>
-    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-    </row>
-    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="55"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="57"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="57"/>
-    </row>
-    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="81"/>
-    </row>
-    <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="79"/>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-    </row>
-    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="39"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="40"/>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="4"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="3"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="32"/>
-    </row>
-    <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="3"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="32"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="3"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="3"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="3"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="10"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="34"/>
-    </row>
-    <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="4"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-    </row>
-    <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-    </row>
-    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="77"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="71"/>
-    </row>
-    <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="D38" s="67"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
-    </row>
-    <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="69"/>
-    </row>
-    <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="71"/>
-    </row>
-    <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="67"/>
-    </row>
-    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="67"/>
-    </row>
-    <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="69"/>
-    </row>
-    <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="D45" s="71"/>
-    </row>
-    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" s="67"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="67"/>
-    </row>
-    <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="69"/>
-    </row>
-    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="71"/>
-    </row>
-    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="66"/>
-      <c r="D50" s="67"/>
-    </row>
-    <row r="51" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="84"/>
-      <c r="D52" s="85"/>
-    </row>
-    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="71"/>
-    </row>
-    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="67"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="67"/>
-    </row>
-    <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="69"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B57" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="70"/>
-      <c r="D57" s="71"/>
-    </row>
-    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B59" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="67"/>
-    </row>
-    <row r="60" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="68"/>
-      <c r="D60" s="69"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D68"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="43.875" customWidth="1"/>
-    <col min="5" max="5" width="1.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-    </row>
-    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-    </row>
-    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="55"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="57"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="57"/>
-    </row>
-    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="81"/>
-    </row>
-    <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="79"/>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-    </row>
-    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="4"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="3"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" s="10"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="34"/>
-    </row>
-    <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="4"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-    </row>
-    <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B32" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="4"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-    </row>
-    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="77"/>
-    </row>
-    <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="D37" s="71"/>
-    </row>
-    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="67"/>
-    </row>
-    <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="67"/>
-    </row>
-    <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="69"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="71"/>
-    </row>
-    <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="67"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="67"/>
-    </row>
-    <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="69"/>
-    </row>
-    <row r="45" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="D45" s="71"/>
-    </row>
-    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>283</v>
-      </c>
-      <c r="D46" s="67"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="D47" s="67"/>
-    </row>
-    <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="69"/>
-    </row>
-    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="71"/>
-    </row>
-    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="66"/>
-      <c r="D50" s="67"/>
-    </row>
-    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
-    </row>
-    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="71"/>
-    </row>
-    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="67"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="67"/>
-    </row>
-    <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="69"/>
-    </row>
-    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="70"/>
-      <c r="D57" s="71"/>
-    </row>
-    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
-    </row>
-    <row r="59" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="67"/>
-    </row>
-    <row r="60" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="84"/>
-      <c r="D60" s="85"/>
-    </row>
-    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="71"/>
-    </row>
-    <row r="62" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="66"/>
-      <c r="D62" s="67"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="67"/>
-    </row>
-    <row r="64" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="68"/>
-      <c r="D64" s="69"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="71"/>
-    </row>
-    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="66"/>
-      <c r="D67" s="67"/>
-    </row>
-    <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="68"/>
-      <c r="D68" s="69"/>
-    </row>
-  </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B16:D16"/>
@@ -6407,12 +5751,30 @@
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6439,57 +5801,57 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="13" t="s">
@@ -6577,57 +5939,57 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="13" t="s">
@@ -6772,7 +6134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -6794,29 +6156,29 @@
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
     </row>
     <row r="7" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="13" t="s">
@@ -6920,10 +6282,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D70"/>
+  <dimension ref="B1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:D59"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6937,70 +6299,70 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="55"/>
+      <c r="C5" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="57"/>
+      <c r="C6" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="81"/>
+        <v>130</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="86"/>
     </row>
     <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="79"/>
+      <c r="C9" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="84"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
@@ -7025,11 +6387,11 @@
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="37" t="s">
@@ -7044,57 +6406,57 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -7133,11 +6495,11 @@
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="28" t="s">
@@ -7150,350 +6512,317 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-    </row>
-    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="37" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="75" t="s">
+    <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="4"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="33"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="77"/>
-    </row>
-    <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="2" t="s">
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+    </row>
+    <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="71"/>
+      <c r="C37" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="70"/>
+    </row>
+    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="72"/>
     </row>
     <row r="39" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="72"/>
+    </row>
+    <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="68"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="70"/>
+    </row>
+    <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="67"/>
-    </row>
-    <row r="40" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="3" t="s">
+      <c r="C42" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="72"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="67"/>
-    </row>
-    <row r="41" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="4" t="s">
+      <c r="C43" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="72"/>
+    </row>
+    <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="69"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="2" t="s">
+      <c r="C44" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="68"/>
+    </row>
+    <row r="45" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="71"/>
-    </row>
-    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="3" t="s">
+      <c r="C45" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="70"/>
+    </row>
+    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="67"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="3" t="s">
+      <c r="C46" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="72"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="67"/>
-    </row>
-    <row r="45" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="4" t="s">
+      <c r="C47" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="72"/>
+    </row>
+    <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="69"/>
-    </row>
-    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="2" t="s">
+      <c r="C48" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="68"/>
+    </row>
+    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" s="71"/>
-    </row>
-    <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="3" t="s">
+      <c r="C49" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="70"/>
+    </row>
+    <row r="50" spans="2:4" s="42" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="67"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="67"/>
-    </row>
-    <row r="49" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="69"/>
-    </row>
-    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="71"/>
+      <c r="C50" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="76"/>
     </row>
     <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="72"/>
+    </row>
+    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
+    </row>
+    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="69"/>
+      <c r="D53" s="70"/>
+    </row>
+    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" s="83"/>
-    </row>
-    <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="3" t="s">
+      <c r="C54" s="71"/>
+      <c r="D54" s="72"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="D52" s="67"/>
-    </row>
-    <row r="53" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="4" t="s">
+      <c r="C55" s="71"/>
+      <c r="D55" s="72"/>
+    </row>
+    <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="68"/>
-      <c r="D53" s="69"/>
-    </row>
-    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="2" t="s">
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
+    </row>
+    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="70" t="s">
-        <v>280</v>
-      </c>
-      <c r="D54" s="71"/>
-    </row>
-    <row r="55" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="3" t="s">
+      <c r="C57" s="69"/>
+      <c r="D57" s="70"/>
+    </row>
+    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" s="67"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B56" s="3" t="s">
+      <c r="C58" s="71"/>
+      <c r="D58" s="72"/>
+    </row>
+    <row r="59" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="D56" s="67"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B57" s="10"/>
-      <c r="C57" s="66" t="s">
-        <v>281</v>
-      </c>
-      <c r="D57" s="67"/>
-    </row>
-    <row r="58" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="4" t="s">
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+    </row>
+    <row r="60" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="69"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B59" s="2" t="s">
+      <c r="C60" s="73"/>
+      <c r="D60" s="74"/>
+    </row>
+    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="70"/>
-      <c r="D59" s="71"/>
-    </row>
-    <row r="60" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="3" t="s">
+      <c r="C61" s="69"/>
+      <c r="D61" s="70"/>
+    </row>
+    <row r="62" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="66"/>
-      <c r="D60" s="67"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B61" s="3" t="s">
+      <c r="C62" s="71"/>
+      <c r="D62" s="72"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B63" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="66"/>
-      <c r="D61" s="67"/>
-    </row>
-    <row r="62" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="4" t="s">
+      <c r="C63" s="71"/>
+      <c r="D63" s="72"/>
+    </row>
+    <row r="64" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="68"/>
-      <c r="D62" s="69"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="2" t="s">
+      <c r="C64" s="67"/>
+      <c r="D64" s="68"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="71"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B64" s="3" t="s">
+      <c r="C65" s="69"/>
+      <c r="D65" s="70"/>
+    </row>
+    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="66"/>
-      <c r="D64" s="67"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="3" t="s">
+      <c r="C66" s="71"/>
+      <c r="D66" s="72"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="66"/>
-      <c r="D65" s="67"/>
-    </row>
-    <row r="66" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="4" t="s">
+      <c r="C67" s="71"/>
+      <c r="D67" s="72"/>
+    </row>
+    <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="69"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="71"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="66"/>
-      <c r="D68" s="67"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B69" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="66"/>
-      <c r="D69" s="67"/>
-    </row>
-    <row r="70" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" s="68"/>
-      <c r="D70" s="69"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="42">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C57:D57"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C62:D62"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C65:D65"/>
@@ -7508,10 +6837,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D52"/>
+  <dimension ref="B1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7525,389 +6854,457 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="55"/>
+      <c r="C5" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="57"/>
+      <c r="C6" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="81"/>
-    </row>
-    <row r="9" spans="2:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="86"/>
+    </row>
+    <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="79"/>
+      <c r="C9" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="84"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+    </row>
+    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="4"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="33"/>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="75" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="39"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="40"/>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="37" t="s">
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D17" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="32"/>
-    </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="3"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="32"/>
+      <c r="B18" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="10"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="34"/>
-    </row>
-    <row r="20" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="4"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="22" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-    </row>
-    <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="75" t="s">
+      <c r="B19" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B22" s="3"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B25" s="3"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="3"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" s="10"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="4"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="33"/>
+    </row>
+    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="77"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="28" t="s">
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="4"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="33"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-    </row>
-    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="75" t="s">
+    <row r="33" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="33"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-    </row>
-    <row r="29" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="D29" s="71"/>
-    </row>
-    <row r="30" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="66" t="s">
-        <v>223</v>
-      </c>
-      <c r="D30" s="67"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
-    </row>
-    <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="69"/>
-    </row>
-    <row r="33" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="D33" s="71"/>
-    </row>
-    <row r="34" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="D34" s="67"/>
-    </row>
-    <row r="35" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="66" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35" s="67"/>
-    </row>
-    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="69"/>
-    </row>
-    <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="71"/>
+      <c r="C37" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="70"/>
     </row>
     <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
+      <c r="C38" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="72"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
     </row>
     <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="69"/>
+      <c r="C40" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="68"/>
     </row>
     <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="71"/>
+      <c r="C41" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="70"/>
     </row>
     <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
-    </row>
-    <row r="43" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C42" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="72"/>
+    </row>
+    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="67"/>
-    </row>
-    <row r="44" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+    </row>
+    <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="84"/>
-      <c r="D44" s="85"/>
+      <c r="C44" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="68"/>
     </row>
     <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="71"/>
+      <c r="C45" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="70"/>
     </row>
     <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
+      <c r="C46" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" s="72"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="67"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="72"/>
     </row>
     <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="69"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C48" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="68"/>
+    </row>
+    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="71"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="70"/>
     </row>
     <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="66"/>
-      <c r="D50" s="67"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C50" s="71"/>
+      <c r="D50" s="72"/>
+    </row>
+    <row r="51" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-    </row>
-    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C51" s="71"/>
+      <c r="D51" s="72"/>
+    </row>
+    <row r="52" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="74"/>
+    </row>
+    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="69"/>
+      <c r="D53" s="70"/>
+    </row>
+    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="71"/>
+      <c r="D54" s="72"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="71"/>
+      <c r="D55" s="72"/>
+    </row>
+    <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="69"/>
+      <c r="D57" s="70"/>
+    </row>
+    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="71"/>
+      <c r="D58" s="72"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+    </row>
+    <row r="60" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="67"/>
+      <c r="D60" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7917,10 +7314,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D58"/>
+  <dimension ref="B1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:D30"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7934,423 +7331,826 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="55"/>
+      <c r="C5" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="57"/>
+      <c r="C6" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" s="81"/>
+        <v>130</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="86"/>
     </row>
     <row r="9" spans="2:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="79"/>
+      <c r="C9" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="84"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-    </row>
-    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="4"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
+    <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="4"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="37" t="s">
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D16" s="19" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="17" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="3"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="32"/>
+    </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="3"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="32"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="3"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="32"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="10"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="34"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="10"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="4"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="22" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="4"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="33"/>
-    </row>
-    <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B24" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="4"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-    </row>
-    <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="75" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
+    </row>
+    <row r="29" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="70"/>
+    </row>
+    <row r="30" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="72"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+    </row>
+    <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="68"/>
+    </row>
+    <row r="33" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="71"/>
-    </row>
-    <row r="32" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="3" t="s">
+      <c r="C33" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="70"/>
+    </row>
+    <row r="34" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="D32" s="67"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="3" t="s">
+      <c r="C34" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="72"/>
+    </row>
+    <row r="35" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="72"/>
+    </row>
+    <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" s="68"/>
+    </row>
+    <row r="37" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="70"/>
+    </row>
+    <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="72"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="67"/>
-    </row>
-    <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="4" t="s">
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
+    </row>
+    <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="69"/>
-    </row>
-    <row r="35" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="2" t="s">
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
+    </row>
+    <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" s="71"/>
-    </row>
-    <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="3" t="s">
+      <c r="C41" s="69"/>
+      <c r="D41" s="70"/>
+    </row>
+    <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="67"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" s="3" t="s">
+      <c r="C42" s="71"/>
+      <c r="D42" s="72"/>
+    </row>
+    <row r="43" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
-    </row>
-    <row r="38" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="4" t="s">
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+    </row>
+    <row r="44" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="69"/>
-    </row>
-    <row r="39" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="2" t="s">
+      <c r="C44" s="73"/>
+      <c r="D44" s="74"/>
+    </row>
+    <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="D39" s="71"/>
-    </row>
-    <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="3" t="s">
+      <c r="C45" s="69"/>
+      <c r="D45" s="70"/>
+    </row>
+    <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="66" t="s">
-        <v>219</v>
-      </c>
-      <c r="D40" s="67"/>
-    </row>
-    <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="D41" s="67"/>
-    </row>
-    <row r="42" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="4" t="s">
+      <c r="C46" s="71"/>
+      <c r="D46" s="72"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="72"/>
+    </row>
+    <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="69"/>
-    </row>
-    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="2" t="s">
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="71"/>
-    </row>
-    <row r="44" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="3" t="s">
+      <c r="C49" s="69"/>
+      <c r="D49" s="70"/>
+    </row>
+    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="67"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45" s="3" t="s">
+      <c r="C50" s="71"/>
+      <c r="D50" s="72"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="67"/>
-    </row>
-    <row r="46" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="4" t="s">
+      <c r="C51" s="71"/>
+      <c r="D51" s="72"/>
+    </row>
+    <row r="52" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
-    </row>
-    <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="71"/>
-    </row>
-    <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="67"/>
-    </row>
-    <row r="49" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="67"/>
-    </row>
-    <row r="50" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="85"/>
-    </row>
-    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="71"/>
-    </row>
-    <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="66"/>
-      <c r="D52" s="67"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B53" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-    </row>
-    <row r="54" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="69"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="70"/>
-      <c r="D55" s="71"/>
-    </row>
-    <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="66"/>
-      <c r="D56" s="67"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B57" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="66"/>
-      <c r="D57" s="67"/>
-    </row>
-    <row r="58" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="68"/>
-      <c r="D58" s="69"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="34">
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="1.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
+    </row>
+    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+    </row>
+    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="56"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="58"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="58"/>
+    </row>
+    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="86"/>
+    </row>
+    <row r="9" spans="2:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="84"/>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+    </row>
+    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="4"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="3"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="32"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="3"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="32"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="10"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="4"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="33"/>
+    </row>
+    <row r="24" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="4"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="33"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="70"/>
+    </row>
+    <row r="32" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="72"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="72"/>
+    </row>
+    <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="68"/>
+    </row>
+    <row r="35" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="70"/>
+    </row>
+    <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="72"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
+    </row>
+    <row r="38" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="68"/>
+    </row>
+    <row r="39" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" s="70"/>
+    </row>
+    <row r="40" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="72"/>
+    </row>
+    <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" s="72"/>
+    </row>
+    <row r="42" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="68"/>
+    </row>
+    <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="70"/>
+    </row>
+    <row r="44" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="71"/>
+      <c r="D45" s="72"/>
+    </row>
+    <row r="46" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="67"/>
+      <c r="D46" s="68"/>
+    </row>
+    <row r="47" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="69"/>
+      <c r="D47" s="70"/>
+    </row>
+    <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="71"/>
+      <c r="D48" s="72"/>
+    </row>
+    <row r="49" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="71"/>
+      <c r="D49" s="72"/>
+    </row>
+    <row r="50" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="73"/>
+      <c r="D50" s="74"/>
+    </row>
+    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="69"/>
+      <c r="D51" s="70"/>
+    </row>
+    <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="71"/>
+      <c r="D52" s="72"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="71"/>
+      <c r="D53" s="72"/>
+    </row>
+    <row r="54" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="67"/>
+      <c r="D54" s="68"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="69"/>
+      <c r="D55" s="70"/>
+    </row>
+    <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="71"/>
+      <c r="D56" s="72"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="71"/>
+      <c r="D57" s="72"/>
+    </row>
+    <row r="58" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="67"/>
+      <c r="D58" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
@@ -8363,18 +8163,20 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8382,11 +8184,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40:D40"/>
     </sheetView>
   </sheetViews>
@@ -8401,70 +8203,70 @@
   <sheetData>
     <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="55"/>
+      <c r="C5" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="57"/>
+      <c r="C6" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="81"/>
+        <v>130</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="86"/>
     </row>
     <row r="9" spans="2:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="78" t="s">
-        <v>209</v>
-      </c>
-      <c r="D9" s="79"/>
+      <c r="C9" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="84"/>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="31" t="s">
@@ -8484,11 +8286,11 @@
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="37" t="s">
@@ -8503,35 +8305,35 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
@@ -8565,11 +8367,11 @@
       <c r="D26" s="23"/>
     </row>
     <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="77"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="28" t="s">
@@ -8594,236 +8396,234 @@
     </row>
     <row r="31" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="71"/>
+      <c r="C33" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="70"/>
     </row>
     <row r="34" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="D34" s="67"/>
+      <c r="C34" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="72"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="67"/>
+      <c r="C35" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="72"/>
     </row>
     <row r="36" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="69"/>
+      <c r="C36" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="68"/>
     </row>
     <row r="37" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="D37" s="71"/>
+      <c r="C37" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" s="70"/>
     </row>
     <row r="38" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="D38" s="67"/>
+      <c r="C38" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="72"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
     </row>
     <row r="40" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B40" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="69"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
     </row>
     <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="70"/>
-      <c r="D41" s="71"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="70"/>
     </row>
     <row r="42" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="72"/>
     </row>
     <row r="43" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="66"/>
-      <c r="D43" s="67"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
     </row>
     <row r="44" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="69"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="68"/>
     </row>
     <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="71"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="70"/>
     </row>
     <row r="46" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="72"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="67"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="72"/>
     </row>
     <row r="48" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="69"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
     </row>
     <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="71"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="70"/>
     </row>
     <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="66"/>
-      <c r="D50" s="67"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="72"/>
     </row>
     <row r="51" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="72"/>
     </row>
     <row r="52" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="84"/>
-      <c r="D52" s="85"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="74"/>
     </row>
     <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="71"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="70"/>
     </row>
     <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="67"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="72"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="66"/>
-      <c r="D55" s="67"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="72"/>
     </row>
     <row r="56" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="69"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="70"/>
-      <c r="D57" s="71"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="70"/>
     </row>
     <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="72"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="67"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
     </row>
     <row r="60" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="68"/>
-      <c r="D60" s="69"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -8836,578 +8636,20 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:D56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="43.875" customWidth="1"/>
-    <col min="5" max="5" width="1.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-    </row>
-    <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
-    </row>
-    <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="55"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="57"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="57"/>
-    </row>
-    <row r="8" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="81"/>
-    </row>
-    <row r="9" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="79"/>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-    </row>
-    <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="37"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="35"/>
-    </row>
-    <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="4"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B23" s="3"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="32"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B24" s="3"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="3"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="10"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="34"/>
-    </row>
-    <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="4"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="29" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-    </row>
-    <row r="30" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B31" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="4"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="24"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-    </row>
-    <row r="34" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="77"/>
-    </row>
-    <row r="36" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="71"/>
-    </row>
-    <row r="37" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="67"/>
-    </row>
-    <row r="38" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
-    </row>
-    <row r="39" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="69"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="71"/>
-    </row>
-    <row r="41" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="67"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
-    </row>
-    <row r="43" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="69"/>
-    </row>
-    <row r="44" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="71"/>
-    </row>
-    <row r="45" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="67"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
-    </row>
-    <row r="47" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="69"/>
-    </row>
-    <row r="48" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="71"/>
-    </row>
-    <row r="49" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="66" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" s="67"/>
-    </row>
-    <row r="50" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="67"/>
-    </row>
-    <row r="51" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="D51" s="69"/>
-    </row>
-    <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="70" t="s">
-        <v>250</v>
-      </c>
-      <c r="D52" s="71"/>
-    </row>
-    <row r="53" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="66" t="s">
-        <v>251</v>
-      </c>
-      <c r="D53" s="67"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B54" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54" s="67"/>
-    </row>
-    <row r="55" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="69"/>
-    </row>
-    <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="70"/>
-      <c r="D56" s="71"/>
-    </row>
-    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="66"/>
-      <c r="D57" s="67"/>
-    </row>
-    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
-    </row>
-    <row r="59" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="3"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="69"/>
-    </row>
-    <row r="60" spans="2:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="84"/>
-      <c r="D60" s="85"/>
-    </row>
-    <row r="61" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="71"/>
-    </row>
-    <row r="62" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="66"/>
-      <c r="D62" s="67"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="67"/>
-    </row>
-    <row r="64" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="68"/>
-      <c r="D64" s="69"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="71"/>
-    </row>
-    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="66"/>
-      <c r="D67" s="67"/>
-    </row>
-    <row r="68" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="68"/>
-      <c r="D68" s="69"/>
-    </row>
-  </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="B2:D3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
